--- a/sample_list_healthy.xlsx
+++ b/sample_list_healthy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93F0B1B-41AB-4B71-9A9F-1ED085B84187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851A4DB6-B762-417E-B53C-0F431C279429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="269">
   <si>
     <t>GSE</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>GSM5277177</t>
+  </si>
+  <si>
+    <t>HC Data</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,12 +998,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1605,9 +1602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1629,7 +1626,7 @@
     <col min="29" max="16384" width="14.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1681,8 +1678,11 @@
       <c r="Q1" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R1" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
@@ -1729,8 +1729,12 @@
         <v>2.8</v>
       </c>
       <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R2" s="25" t="b">
+        <f>NOT(J2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
@@ -1777,8 +1781,12 @@
         <v>2.8</v>
       </c>
       <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R3" s="25" t="b">
+        <f t="shared" ref="R3:R66" si="1">NOT(J3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
@@ -1825,8 +1833,12 @@
         <v>2.8</v>
       </c>
       <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R4" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
@@ -1871,8 +1883,12 @@
         <v>2.8</v>
       </c>
       <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R5" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
@@ -1919,8 +1935,12 @@
         <v>2.8</v>
       </c>
       <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R6" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
@@ -1965,8 +1985,12 @@
         <v>2.8</v>
       </c>
       <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R7" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="38" t="s">
         <v>7</v>
       </c>
@@ -2011,8 +2035,12 @@
         <v>2.8</v>
       </c>
       <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R8" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="38" t="s">
         <v>7</v>
       </c>
@@ -2059,8 +2087,12 @@
         <v>2.8</v>
       </c>
       <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R9" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="38" t="s">
         <v>7</v>
       </c>
@@ -2107,8 +2139,12 @@
         <v>2.8</v>
       </c>
       <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R10" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="41" t="s">
         <v>259</v>
       </c>
@@ -2126,7 +2162,9 @@
       <c r="G11" s="37"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
+      <c r="J11" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -2134,8 +2172,12 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
-    </row>
-    <row r="12" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R11" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="41" t="s">
         <v>259</v>
       </c>
@@ -2153,7 +2195,9 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
+      <c r="J12" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -2161,8 +2205,12 @@
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R12" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="41" t="s">
         <v>259</v>
       </c>
@@ -2180,7 +2228,9 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="J13" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -2188,8 +2238,12 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
-    </row>
-    <row r="14" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R13" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="41" t="s">
         <v>259</v>
       </c>
@@ -2207,7 +2261,9 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="J14" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -2215,8 +2271,12 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
-    </row>
-    <row r="15" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R14" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="41" t="s">
         <v>259</v>
       </c>
@@ -2234,7 +2294,9 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="J15" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -2242,8 +2304,12 @@
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
-    </row>
-    <row r="16" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R15" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="41" t="s">
         <v>259</v>
       </c>
@@ -2261,7 +2327,9 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -2269,8 +2337,12 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
-    </row>
-    <row r="17" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R16" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="41" t="s">
         <v>259</v>
       </c>
@@ -2288,7 +2360,9 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -2296,8 +2370,12 @@
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
-    </row>
-    <row r="18" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R17" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="41" t="s">
         <v>259</v>
       </c>
@@ -2315,7 +2393,9 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="J18" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -2323,8 +2403,12 @@
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-    </row>
-    <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R18" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="48" t="s">
         <v>21</v>
       </c>
@@ -2364,8 +2448,12 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R19" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="48" t="s">
         <v>21</v>
       </c>
@@ -2405,8 +2493,12 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R20" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="48" t="s">
         <v>21</v>
       </c>
@@ -2448,8 +2540,12 @@
       <c r="O21" s="5"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R21" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="48" t="s">
         <v>21</v>
       </c>
@@ -2491,8 +2587,12 @@
       <c r="O22" s="5"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R22" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="45" t="s">
         <v>21</v>
       </c>
@@ -2524,8 +2624,12 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R23" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="45" t="s">
         <v>21</v>
       </c>
@@ -2557,8 +2661,12 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R24" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="45" t="s">
         <v>21</v>
       </c>
@@ -2592,8 +2700,12 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R25" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="45" t="s">
         <v>21</v>
       </c>
@@ -2627,8 +2739,12 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R26" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="49" t="s">
         <v>34</v>
       </c>
@@ -2672,8 +2788,12 @@
       <c r="Q27" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R27" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="49" t="s">
         <v>34</v>
       </c>
@@ -2717,8 +2837,12 @@
       <c r="Q28" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R28" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="49" t="s">
         <v>34</v>
       </c>
@@ -2762,8 +2886,12 @@
       <c r="Q29" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R29" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="52" t="s">
         <v>34</v>
       </c>
@@ -2799,8 +2927,12 @@
       <c r="Q30" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R30" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="55" t="s">
         <v>39</v>
       </c>
@@ -2838,8 +2970,12 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R31" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="55" t="s">
         <v>39</v>
       </c>
@@ -2877,8 +3013,12 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R32" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="55" t="s">
         <v>39</v>
       </c>
@@ -2916,8 +3056,12 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R33" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="55" t="s">
         <v>39</v>
       </c>
@@ -2953,8 +3097,12 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R34" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="55" t="s">
         <v>39</v>
       </c>
@@ -2990,8 +3138,12 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R35" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="55" t="s">
         <v>39</v>
       </c>
@@ -3029,8 +3181,12 @@
       <c r="O36" s="5"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R36" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="55" t="s">
         <v>39</v>
       </c>
@@ -3068,8 +3224,12 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-    </row>
-    <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="55" t="s">
         <v>39</v>
       </c>
@@ -3107,8 +3267,12 @@
       <c r="O38" s="5"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="5"/>
-    </row>
-    <row r="39" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
@@ -3142,8 +3306,12 @@
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-    </row>
-    <row r="40" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R39" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
@@ -3177,8 +3345,12 @@
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-    </row>
-    <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R40" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -3212,8 +3384,12 @@
       </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R41" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>39</v>
       </c>
@@ -3247,8 +3423,12 @@
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-    </row>
-    <row r="43" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R42" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>39</v>
       </c>
@@ -3282,8 +3462,12 @@
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-    </row>
-    <row r="44" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R43" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>39</v>
       </c>
@@ -3317,8 +3501,12 @@
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-    </row>
-    <row r="45" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R44" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
         <v>39</v>
       </c>
@@ -3352,8 +3540,12 @@
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-    </row>
-    <row r="46" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R45" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>39</v>
       </c>
@@ -3387,8 +3579,12 @@
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
-    </row>
-    <row r="47" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R46" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>39</v>
       </c>
@@ -3422,8 +3618,12 @@
       </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-    </row>
-    <row r="48" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R47" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>39</v>
       </c>
@@ -3457,8 +3657,12 @@
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
-    </row>
-    <row r="49" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R48" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
         <v>39</v>
       </c>
@@ -3492,8 +3696,12 @@
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
-    </row>
-    <row r="50" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R49" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
         <v>39</v>
       </c>
@@ -3527,8 +3735,12 @@
       </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
-    </row>
-    <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R50" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
         <v>39</v>
       </c>
@@ -3562,8 +3774,12 @@
       </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-    </row>
-    <row r="52" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R51" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="8" t="s">
         <v>39</v>
       </c>
@@ -3597,8 +3813,12 @@
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
-    </row>
-    <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R52" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="8" t="s">
         <v>39</v>
       </c>
@@ -3632,8 +3852,12 @@
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-    </row>
-    <row r="54" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R53" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
@@ -3667,8 +3891,12 @@
       </c>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
-    </row>
-    <row r="55" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R54" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
         <v>39</v>
       </c>
@@ -3702,8 +3930,12 @@
       </c>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
-    </row>
-    <row r="56" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R55" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="8" t="s">
         <v>39</v>
       </c>
@@ -3737,8 +3969,12 @@
       </c>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-    </row>
-    <row r="57" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R56" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="58" t="s">
         <v>39</v>
       </c>
@@ -3772,8 +4008,12 @@
       </c>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
-    </row>
-    <row r="58" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R57" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="58" t="s">
         <v>39</v>
       </c>
@@ -3807,8 +4047,12 @@
       </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
-    </row>
-    <row r="59" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R58" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="58" t="s">
         <v>39</v>
       </c>
@@ -3842,8 +4086,12 @@
       </c>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
-    </row>
-    <row r="60" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R59" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="58" t="s">
         <v>39</v>
       </c>
@@ -3877,8 +4125,12 @@
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-    </row>
-    <row r="61" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R60" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="58" t="s">
         <v>39</v>
       </c>
@@ -3912,8 +4164,12 @@
       </c>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-    </row>
-    <row r="62" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R61" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="58" t="s">
         <v>39</v>
       </c>
@@ -3947,8 +4203,12 @@
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
-    </row>
-    <row r="63" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R62" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="58" t="s">
         <v>39</v>
       </c>
@@ -3982,8 +4242,12 @@
       </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-    </row>
-    <row r="64" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R63" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="58" t="s">
         <v>39</v>
       </c>
@@ -4017,8 +4281,12 @@
       </c>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
-    </row>
-    <row r="65" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R64" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="58" t="s">
         <v>39</v>
       </c>
@@ -4052,8 +4320,12 @@
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-    </row>
-    <row r="66" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R65" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="58" t="s">
         <v>39</v>
       </c>
@@ -4087,8 +4359,12 @@
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-    </row>
-    <row r="67" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R66" s="25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
         <v>77</v>
       </c>
@@ -4120,8 +4396,12 @@
       <c r="O67" s="16"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-    </row>
-    <row r="68" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R67" s="25" t="b">
+        <f t="shared" ref="R67:R114" si="2">NOT(J67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>77</v>
       </c>
@@ -4153,8 +4433,12 @@
       <c r="O68" s="16"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-    </row>
-    <row r="69" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R68" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>77</v>
       </c>
@@ -4186,8 +4470,12 @@
       <c r="O69" s="16"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
-    </row>
-    <row r="70" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R69" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>77</v>
       </c>
@@ -4219,8 +4507,11 @@
       <c r="O70" s="16"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
-    </row>
-    <row r="71" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R70" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="64" t="s">
         <v>83</v>
       </c>
@@ -4264,8 +4555,12 @@
       </c>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
-    </row>
-    <row r="72" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R71" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="64" t="s">
         <v>83</v>
       </c>
@@ -4309,8 +4604,12 @@
       </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
-    </row>
-    <row r="73" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R72" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="64" t="s">
         <v>83</v>
       </c>
@@ -4354,8 +4653,12 @@
       </c>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
-    </row>
-    <row r="74" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R73" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="61" t="s">
         <v>83</v>
       </c>
@@ -4387,8 +4690,12 @@
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
-    </row>
-    <row r="75" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R74" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="61" t="s">
         <v>83</v>
       </c>
@@ -4420,8 +4727,12 @@
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-    </row>
-    <row r="76" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R75" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="61" t="s">
         <v>83</v>
       </c>
@@ -4453,8 +4764,12 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-    </row>
-    <row r="77" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R76" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="61" t="s">
         <v>83</v>
       </c>
@@ -4486,8 +4801,12 @@
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
-    </row>
-    <row r="78" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R77" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="61" t="s">
         <v>83</v>
       </c>
@@ -4519,8 +4838,12 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
-    </row>
-    <row r="79" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R78" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="61" t="s">
         <v>83</v>
       </c>
@@ -4552,8 +4875,12 @@
       <c r="O79" s="15"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-    </row>
-    <row r="80" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R79" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="67" t="s">
         <v>93</v>
       </c>
@@ -4591,8 +4918,12 @@
       <c r="O80" s="15"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
-    </row>
-    <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R80" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="67" t="s">
         <v>93</v>
       </c>
@@ -4636,8 +4967,12 @@
       </c>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-    </row>
-    <row r="82" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R81" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="67" t="s">
         <v>93</v>
       </c>
@@ -4681,8 +5016,12 @@
       </c>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
-    </row>
-    <row r="83" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R82" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="67" t="s">
         <v>93</v>
       </c>
@@ -4726,8 +5065,12 @@
       </c>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-    </row>
-    <row r="84" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R83" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="67" t="s">
         <v>93</v>
       </c>
@@ -4771,8 +5114,12 @@
       </c>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-    </row>
-    <row r="85" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R84" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="67" t="s">
         <v>93</v>
       </c>
@@ -4816,8 +5163,12 @@
       </c>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-    </row>
-    <row r="86" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R85" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="67" t="s">
         <v>93</v>
       </c>
@@ -4861,8 +5212,12 @@
       </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-    </row>
-    <row r="87" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R86" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="67" t="s">
         <v>93</v>
       </c>
@@ -4906,8 +5261,12 @@
       </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
-    </row>
-    <row r="88" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R87" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="70" t="s">
         <v>93</v>
       </c>
@@ -4939,8 +5298,12 @@
       <c r="O88" s="13"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
-    </row>
-    <row r="89" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R88" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="70" t="s">
         <v>93</v>
       </c>
@@ -4972,8 +5335,12 @@
       <c r="O89" s="13"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
-    </row>
-    <row r="90" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R89" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="70" t="s">
         <v>93</v>
       </c>
@@ -5005,8 +5372,12 @@
       <c r="O90" s="13"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
-    </row>
-    <row r="91" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R90" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="70" t="s">
         <v>93</v>
       </c>
@@ -5038,8 +5409,12 @@
       <c r="O91" s="13"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
-    </row>
-    <row r="92" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R91" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="70" t="s">
         <v>93</v>
       </c>
@@ -5071,8 +5446,12 @@
       <c r="O92" s="13"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
-    </row>
-    <row r="93" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R92" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="70" t="s">
         <v>93</v>
       </c>
@@ -5104,8 +5483,12 @@
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
-    </row>
-    <row r="94" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R93" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="20" t="s">
         <v>111</v>
       </c>
@@ -5149,8 +5532,12 @@
       </c>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-    </row>
-    <row r="95" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R94" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="20" t="s">
         <v>111</v>
       </c>
@@ -5194,8 +5581,12 @@
       </c>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
-    </row>
-    <row r="96" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R95" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="20" t="s">
         <v>111</v>
       </c>
@@ -5239,8 +5630,12 @@
       </c>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
-    </row>
-    <row r="97" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R96" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="20" t="s">
         <v>111</v>
       </c>
@@ -5284,8 +5679,12 @@
       </c>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
-    </row>
-    <row r="98" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R97" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="20" t="s">
         <v>111</v>
       </c>
@@ -5329,8 +5728,12 @@
       </c>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
-    </row>
-    <row r="99" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R98" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="20" t="s">
         <v>111</v>
       </c>
@@ -5374,8 +5777,12 @@
       </c>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
-    </row>
-    <row r="100" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R99" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="20" t="s">
         <v>111</v>
       </c>
@@ -5419,8 +5826,12 @@
       </c>
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
-    </row>
-    <row r="101" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R100" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="20" t="s">
         <v>111</v>
       </c>
@@ -5464,8 +5875,12 @@
       </c>
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
-    </row>
-    <row r="102" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R101" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="20" t="s">
         <v>111</v>
       </c>
@@ -5509,8 +5924,12 @@
       </c>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
-    </row>
-    <row r="103" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R102" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="20" t="s">
         <v>111</v>
       </c>
@@ -5554,8 +5973,12 @@
       </c>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
-    </row>
-    <row r="104" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R103" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="73" t="s">
         <v>111</v>
       </c>
@@ -5587,8 +6010,12 @@
       <c r="O104" s="13"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
-    </row>
-    <row r="105" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R104" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="73" t="s">
         <v>111</v>
       </c>
@@ -5620,8 +6047,12 @@
       <c r="O105" s="13"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
-    </row>
-    <row r="106" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R105" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="73" t="s">
         <v>111</v>
       </c>
@@ -5653,8 +6084,12 @@
       <c r="O106" s="13"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
-    </row>
-    <row r="107" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R106" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="73" t="s">
         <v>111</v>
       </c>
@@ -5686,8 +6121,12 @@
       <c r="O107" s="13"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
-    </row>
-    <row r="108" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R107" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="73" t="s">
         <v>111</v>
       </c>
@@ -5719,8 +6158,12 @@
       <c r="O108" s="13"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
-    </row>
-    <row r="109" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R108" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="73" t="s">
         <v>111</v>
       </c>
@@ -5752,8 +6195,12 @@
       <c r="O109" s="13"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
-    </row>
-    <row r="110" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R109" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="73" t="s">
         <v>111</v>
       </c>
@@ -5785,8 +6232,12 @@
       <c r="O110" s="13"/>
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
-    </row>
-    <row r="111" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R110" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="73" t="s">
         <v>111</v>
       </c>
@@ -5818,8 +6269,12 @@
       <c r="O111" s="13"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
-    </row>
-    <row r="112" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R111" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="73" t="s">
         <v>111</v>
       </c>
@@ -5851,8 +6306,12 @@
       <c r="O112" s="13"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
-    </row>
-    <row r="113" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R112" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="73" t="s">
         <v>111</v>
       </c>
@@ -5884,8 +6343,12 @@
       <c r="O113" s="13"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
-    </row>
-    <row r="114" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R113" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="34" t="s">
         <v>258</v>
       </c>
@@ -5919,24 +6382,28 @@
       <c r="O114" s="13"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
-    </row>
-    <row r="115" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R114" s="25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N115" s="4"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6821,6 +7288,28 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q1008">
     <sortCondition ref="A1:A1008"/>
   </sortState>
+  <conditionalFormatting sqref="A1:A10 A19:A1008">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A11:A18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -6833,28 +7322,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A10 A19:A1008">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/sample_list_healthy.xlsx
+++ b/sample_list_healthy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851A4DB6-B762-417E-B53C-0F431C279429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B21A57-D923-4E01-80C0-301E27A08EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <author>tc={E13DE188-AD34-4B44-BCD4-5388310AA511}</author>
     <author>tc={6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}</author>
     <author>tc={BCA65DF6-D1CD-426F-B8C4-C82470F01E27}</author>
+    <author>randymi</author>
     <author>tc={E1F80EC1-29ED-483D-B8E3-F6B366775769}</author>
     <author>tc={FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}</author>
     <author>tc={82852501-5DF6-414C-BB2B-595CD46B4355}</author>
@@ -58,7 +59,7 @@
 Human skin samples for single-cell analyses. Five patients with chronic HS and 8 healthy controls were recruited for single-cell analysis at the University of Michigan. HS patients had a disease duration of at least 1 year prior to sampling and Hurley stage II or III disease. Patients did not use biologics or i.v. treatment and were off any other systemic treatment and off any topical agents for at least 2 weeks prior to inclusion. Six-millimeter punch biopsies were taken from lesional skin in the case of HS patients and healthy control skin from the hip/buttock for healthy controls.</t>
       </text>
     </comment>
-    <comment ref="O8" authorId="1" shapeId="0" xr:uid="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
+    <comment ref="T8" authorId="1" shapeId="0" xr:uid="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +75,32 @@
     HC used by GSE154775</t>
       </text>
     </comment>
-    <comment ref="A23" authorId="3" shapeId="0" xr:uid="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
+    <comment ref="A17" authorId="3" shapeId="0" xr:uid="{23288143-4254-40CC-A93F-F6EE31743036}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>randymi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not using since too little cells
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="4" shapeId="0" xr:uid="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +109,7 @@
 Eligible participants were: 1) Age ≥18 years, 2) moderate-to-severe HS as defined by HS PGA score ≥3, 2) active disease involving ≥1 body site, 3) 3 t1/2 washout period from all systemic immunomodulating agents for management of HS at the pre-anti-TNFα time point </t>
       </text>
     </comment>
-    <comment ref="A29" authorId="4" shapeId="0" xr:uid="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
+    <comment ref="A29" authorId="5" shapeId="0" xr:uid="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +124,7 @@
 otherwise discarded tissue.</t>
       </text>
     </comment>
-    <comment ref="A36" authorId="5" shapeId="0" xr:uid="{82852501-5DF6-414C-BB2B-595CD46B4355}">
+    <comment ref="A36" authorId="6" shapeId="0" xr:uid="{82852501-5DF6-414C-BB2B-595CD46B4355}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -106,7 +132,57 @@
     Discarded and de-identified HS skin specimens were collected during HS dermal tunnel de-roofing surgical procedures. To label epidermal KCs and dermal tunnel KCs separately, the epidermis and dermis of collected skin samples were separated after incubation in 0.2% Dispase II (Sigma-Aldrich) for 3 hours (Supplemental Figure 1). Then, the epidermis and dermis were separately incubated in RPMI-1640 medium with L-glutamine (Cytiva) supplemented with 10% human albumin serum (Sigma-Aldrich) in a humidified incubator at 37°C and 5% CO2. Cells that had emigrated out of the epidermis and dermis were separately harvested after 48 hours. </t>
       </text>
     </comment>
-    <comment ref="A67" authorId="6" shapeId="0" xr:uid="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
+    <comment ref="A59" authorId="3" shapeId="0" xr:uid="{2213BFC3-344F-4D91-9827-88AD43C7601C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>randymi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not enough cells
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="3" shapeId="0" xr:uid="{841C3BC5-1DAE-47F1-A817-8E92D933D016}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>randymi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop too little cells (73 post qc)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A67" authorId="7" shapeId="0" xr:uid="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,7 +190,7 @@
     The Institutional Review Board of the University of Alabama at Birmingham approved the protocol (IRB-300005214) for obtaining surgically discarded skin tissues from heathy and HS (Hurley II/III stage) subjects. Surgical excisions from 7 patients with HS (axillary and groin lesions) and 5 healthy controls (discarded tissue from breast or abdominoplasty reduction surgery) were collected. </t>
       </text>
     </comment>
-    <comment ref="A72" authorId="7" shapeId="0" xr:uid="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
+    <comment ref="A72" authorId="8" shapeId="0" xr:uid="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="274">
   <si>
     <t>GSE</t>
   </si>
@@ -935,6 +1011,21 @@
   </si>
   <si>
     <t>HC Data</t>
+  </si>
+  <si>
+    <t>Healthy QC Done</t>
+  </si>
+  <si>
+    <t>PreQC Cells</t>
+  </si>
+  <si>
+    <t>PostQC Cells</t>
+  </si>
+  <si>
+    <t>Skin Type</t>
+  </si>
+  <si>
+    <t>Lesional</t>
   </si>
 </sst>
 </file>
@@ -944,7 +1035,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1086,42 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1169,7 +1296,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1330,6 +1457,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1559,7 +1698,7 @@
     <text>Moderate to severe
 Human skin samples for single-cell analyses. Five patients with chronic HS and 8 healthy controls were recruited for single-cell analysis at the University of Michigan. HS patients had a disease duration of at least 1 year prior to sampling and Hurley stage II or III disease. Patients did not use biologics or i.v. treatment and were off any other systemic treatment and off any topical agents for at least 2 weeks prior to inclusion. Six-millimeter punch biopsies were taken from lesional skin in the case of HS patients and healthy control skin from the hip/buttock for healthy controls.</text>
   </threadedComment>
-  <threadedComment ref="O8" dT="2024-08-07T15:29:04.81" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
+  <threadedComment ref="T8" dT="2024-08-07T15:29:04.81" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
     <text>These are means</text>
   </threadedComment>
   <threadedComment ref="A11" dT="2024-09-04T21:23:05.32" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{BCA65DF6-D1CD-426F-B8C4-C82470F01E27}">
@@ -1600,33 +1739,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1008"/>
+  <dimension ref="A1:V1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.86328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.73046875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.73046875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="20.9296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.53125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.3984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.86328125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="8.73046875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.53125" style="1" customWidth="1"/>
-    <col min="19" max="28" width="8.73046875" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="14.3984375" style="1"/>
+    <col min="3" max="6" width="8.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="18.06640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.73046875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="20.9296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.53125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.73046875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.3984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.86328125" style="2" customWidth="1"/>
+    <col min="18" max="20" width="8.73046875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.53125" style="1" customWidth="1"/>
+    <col min="23" max="32" width="8.73046875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="14.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1642,47 +1783,59 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="K1" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
@@ -1698,43 +1851,49 @@
       <c r="E2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="32">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="25" t="b">
+        <f>NOT(O2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="32">
         <v>0.12908878504672799</v>
       </c>
-      <c r="H2" s="25">
+      <c r="M2" s="25">
         <v>1712</v>
       </c>
-      <c r="I2" s="25">
+      <c r="N2" s="25">
         <v>221</v>
       </c>
-      <c r="J2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="O2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="L2" s="9">
+      <c r="Q2" s="9">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="12">
+      <c r="S2" s="5"/>
+      <c r="T2" s="12">
         <v>42.22</v>
       </c>
-      <c r="P2" s="12">
-        <f t="shared" ref="P2:P10" si="0">14/5</f>
+      <c r="U2" s="12">
+        <f t="shared" ref="U2:U10" si="0">14/5</f>
         <v>2.8</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="25" t="b">
-        <f>NOT(J2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
@@ -1750,43 +1909,49 @@
       <c r="E3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="32">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="25" t="b">
+        <f>NOT(O3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="32">
         <v>6.3876651982378796E-2</v>
       </c>
-      <c r="H3" s="25">
+      <c r="M3" s="25">
         <v>908</v>
       </c>
-      <c r="I3" s="25">
+      <c r="N3" s="25">
         <v>58</v>
       </c>
-      <c r="J3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="18" t="s">
+      <c r="O3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L3" s="9">
+      <c r="Q3" s="9">
         <v>2</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="12">
+      <c r="S3" s="5"/>
+      <c r="T3" s="12">
         <v>42.22</v>
       </c>
-      <c r="P3" s="12">
+      <c r="U3" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="25" t="b">
-        <f t="shared" ref="R3:R66" si="1">NOT(J3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
@@ -1802,43 +1967,49 @@
       <c r="E4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="32">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="25" t="b">
+        <f>NOT(O4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="32">
         <v>3.8231780167264001E-2</v>
       </c>
-      <c r="H4" s="25">
+      <c r="M4" s="25">
         <v>837</v>
       </c>
-      <c r="I4" s="25">
+      <c r="N4" s="25">
         <v>31</v>
       </c>
-      <c r="J4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="O4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L4" s="9">
+      <c r="Q4" s="9">
         <v>2</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="12">
+      <c r="S4" s="5"/>
+      <c r="T4" s="12">
         <v>42.22</v>
       </c>
-      <c r="P4" s="12">
+      <c r="U4" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
@@ -1852,43 +2023,49 @@
         <v>10</v>
       </c>
       <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="32">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="25" t="b">
+        <f>NOT(O5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
         <v>3.6499377851513803E-2</v>
       </c>
-      <c r="H5" s="25">
+      <c r="M5" s="25">
         <v>4822</v>
       </c>
-      <c r="I5" s="25">
+      <c r="N5" s="25">
         <v>176</v>
       </c>
-      <c r="J5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="18" t="s">
+      <c r="O5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="9">
+      <c r="Q5" s="9">
         <v>2</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="12">
+      <c r="S5" s="5"/>
+      <c r="T5" s="12">
         <v>42.22</v>
       </c>
-      <c r="P5" s="12">
+      <c r="U5" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
@@ -1904,43 +2081,49 @@
       <c r="E6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="32">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="25" t="b">
+        <f>NOT(O6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
         <v>1.48514851485148E-2</v>
       </c>
-      <c r="H6" s="25">
+      <c r="M6" s="25">
         <v>808</v>
       </c>
-      <c r="I6" s="25">
+      <c r="N6" s="25">
         <v>12</v>
       </c>
-      <c r="J6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="18" t="s">
+      <c r="O6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="L6" s="9">
+      <c r="Q6" s="9">
         <v>2</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="12">
+      <c r="S6" s="5"/>
+      <c r="T6" s="12">
         <v>42.22</v>
       </c>
-      <c r="P6" s="12">
+      <c r="U6" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
@@ -1954,43 +2137,49 @@
         <v>10</v>
       </c>
       <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="32">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="25" t="b">
+        <f>NOT(O7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="32">
         <v>1.13082472216806E-2</v>
       </c>
-      <c r="H7" s="25">
+      <c r="M7" s="25">
         <v>5129</v>
       </c>
-      <c r="I7" s="25">
+      <c r="N7" s="25">
         <v>58</v>
       </c>
-      <c r="J7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="O7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="9">
+      <c r="Q7" s="9">
         <v>2</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="12">
+      <c r="S7" s="5"/>
+      <c r="T7" s="12">
         <v>42.22</v>
       </c>
-      <c r="P7" s="12">
+      <c r="U7" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="38" t="s">
         <v>7</v>
       </c>
@@ -2004,43 +2193,49 @@
         <v>10</v>
       </c>
       <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="32">
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="25" t="b">
+        <f>NOT(O8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
         <v>1.1085285177900899E-2</v>
       </c>
-      <c r="H8" s="25">
+      <c r="M8" s="25">
         <v>5593</v>
       </c>
-      <c r="I8" s="25">
+      <c r="N8" s="25">
         <v>62</v>
       </c>
-      <c r="J8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="18" t="s">
+      <c r="O8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="L8" s="9">
+      <c r="Q8" s="9">
         <v>2</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="12">
+      <c r="S8" s="5"/>
+      <c r="T8" s="12">
         <v>42.22</v>
       </c>
-      <c r="P8" s="12">
+      <c r="U8" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="38" t="s">
         <v>7</v>
       </c>
@@ -2056,43 +2251,49 @@
       <c r="E9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="32">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="25" t="b">
+        <f>NOT(O9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="32">
         <v>8.3217753120665705E-3</v>
       </c>
-      <c r="H9" s="25">
+      <c r="M9" s="25">
         <v>1442</v>
       </c>
-      <c r="I9" s="25">
+      <c r="N9" s="25">
         <v>12</v>
       </c>
-      <c r="J9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="18" t="s">
+      <c r="O9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="L9" s="9">
+      <c r="Q9" s="9">
         <v>2</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="12">
+      <c r="S9" s="5"/>
+      <c r="T9" s="12">
         <v>42.22</v>
       </c>
-      <c r="P9" s="12">
+      <c r="U9" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="38" t="s">
         <v>7</v>
       </c>
@@ -2108,43 +2309,49 @@
       <c r="E10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="32">
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="25" t="b">
+        <f>NOT(O10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="32">
         <v>5.5979643765903296E-3</v>
       </c>
-      <c r="H10" s="25">
+      <c r="M10" s="25">
         <v>1965</v>
       </c>
-      <c r="I10" s="25">
+      <c r="N10" s="25">
         <v>11</v>
       </c>
-      <c r="J10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18" t="s">
+      <c r="O10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="9">
+      <c r="Q10" s="9">
         <v>2</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="12">
+      <c r="S10" s="5"/>
+      <c r="T10" s="12">
         <v>42.22</v>
       </c>
-      <c r="P10" s="12">
+      <c r="U10" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="41" t="s">
         <v>259</v>
       </c>
@@ -2158,26 +2365,36 @@
         <v>24</v>
       </c>
       <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="F11" s="43">
+        <v>1148</v>
+      </c>
+      <c r="G11" s="43">
+        <v>931</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="25" t="b">
+        <f>NOT(O11)</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="37"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
+      <c r="O11" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
-      <c r="R11" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="41" t="s">
         <v>259</v>
       </c>
@@ -2192,25 +2409,29 @@
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="25"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="25" t="b">
+        <f>NOT(O12)</f>
+        <v>1</v>
+      </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
+      <c r="O12" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="P12" s="25"/>
       <c r="Q12" s="25"/>
-      <c r="R12" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="41" t="s">
         <v>259</v>
       </c>
@@ -2225,25 +2446,29 @@
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="25"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="25" t="b">
+        <f>NOT(O13)</f>
+        <v>1</v>
+      </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
+      <c r="O13" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
-      <c r="R13" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+    </row>
+    <row r="14" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="41" t="s">
         <v>259</v>
       </c>
@@ -2258,25 +2483,29 @@
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="25"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="25" t="b">
+        <f>NOT(O14)</f>
+        <v>1</v>
+      </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="O14" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
-      <c r="R14" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+    </row>
+    <row r="15" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="41" t="s">
         <v>259</v>
       </c>
@@ -2291,25 +2520,29 @@
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="25"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="25" t="b">
+        <f>NOT(O15)</f>
+        <v>1</v>
+      </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="O15" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
-      <c r="R15" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+    </row>
+    <row r="16" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="41" t="s">
         <v>259</v>
       </c>
@@ -2324,58 +2557,69 @@
       </c>
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="25"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="25" t="b">
+        <f>NOT(O16)</f>
+        <v>1</v>
+      </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="O16" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
-      <c r="R16" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="41" t="s">
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+    </row>
+    <row r="17" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="25"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78">
+        <v>208</v>
+      </c>
+      <c r="G17" s="78">
+        <v>99</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="O17" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
-      <c r="R17" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+    </row>
+    <row r="18" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="41" t="s">
         <v>259</v>
       </c>
@@ -2390,25 +2634,29 @@
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="25"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="25" t="b">
+        <f>NOT(O18)</f>
+        <v>1</v>
+      </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="O18" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+    </row>
+    <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="48" t="s">
         <v>21</v>
       </c>
@@ -2422,38 +2670,44 @@
         <v>10</v>
       </c>
       <c r="E19" s="34"/>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J19" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="32">
+      <c r="K19" s="25" t="b">
+        <f>NOT(O19)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="32">
         <v>0.20927622966149201</v>
       </c>
-      <c r="H19" s="25">
+      <c r="M19" s="25">
         <v>5347</v>
       </c>
-      <c r="I19" s="25">
+      <c r="N19" s="25">
         <v>1119</v>
       </c>
-      <c r="J19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19" t="s">
+      <c r="O19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L19" s="9">
+      <c r="Q19" s="9">
         <v>0.5</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="48" t="s">
         <v>21</v>
       </c>
@@ -2467,38 +2721,44 @@
         <v>10</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="32">
+      <c r="K20" s="25" t="b">
+        <f>NOT(O20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="32">
         <v>0.15913171209401</v>
       </c>
-      <c r="H20" s="25">
+      <c r="M20" s="25">
         <v>6127</v>
       </c>
-      <c r="I20" s="25">
+      <c r="N20" s="25">
         <v>975</v>
       </c>
-      <c r="J20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="19" t="s">
+      <c r="O20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L20" s="9">
+      <c r="Q20" s="9">
         <v>0.5</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="48" t="s">
         <v>21</v>
       </c>
@@ -2514,38 +2774,44 @@
       <c r="E21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J21" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="32">
+      <c r="K21" s="25" t="b">
+        <f>NOT(O21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="32">
         <v>3.0278884462151299E-2</v>
       </c>
-      <c r="H21" s="25">
+      <c r="M21" s="25">
         <v>11295</v>
       </c>
-      <c r="I21" s="25">
+      <c r="N21" s="25">
         <v>342</v>
       </c>
-      <c r="J21" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="19" t="s">
+      <c r="O21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="L21" s="9">
+      <c r="Q21" s="9">
         <v>0.5</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="48" t="s">
         <v>21</v>
       </c>
@@ -2561,38 +2827,44 @@
       <c r="E22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J22" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="32">
+      <c r="K22" s="25" t="b">
+        <f>NOT(O22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="32">
         <v>3.59382168527297E-3</v>
       </c>
-      <c r="H22" s="25">
+      <c r="M22" s="25">
         <v>13078</v>
       </c>
-      <c r="I22" s="25">
+      <c r="N22" s="25">
         <v>47</v>
       </c>
-      <c r="J22" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="19" t="s">
+      <c r="O22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="L22" s="9">
+      <c r="Q22" s="9">
         <v>0.5</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="45" t="s">
         <v>21</v>
       </c>
@@ -2606,30 +2878,34 @@
         <v>24</v>
       </c>
       <c r="E23" s="46"/>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="L23" s="9"/>
+      <c r="K23" s="25" t="b">
+        <f>NOT(O23)</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="30"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="45" t="s">
         <v>21</v>
       </c>
@@ -2643,30 +2919,34 @@
         <v>24</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="L24" s="9"/>
+      <c r="K24" s="25" t="b">
+        <f>NOT(O24)</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="30"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="45" t="s">
         <v>21</v>
       </c>
@@ -2682,30 +2962,34 @@
       <c r="E25" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" s="9"/>
+      <c r="K25" s="25" t="b">
+        <f>NOT(O25)</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="30"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="45" t="s">
         <v>21</v>
       </c>
@@ -2721,30 +3005,34 @@
       <c r="E26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="9"/>
+      <c r="K26" s="25" t="b">
+        <f>NOT(O26)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="30"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="49" t="s">
         <v>34</v>
       </c>
@@ -2758,42 +3046,48 @@
         <v>10</v>
       </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="32">
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="J27" s="51"/>
+      <c r="K27" s="25" t="b">
+        <f>NOT(O27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="32">
         <v>0.52565180824222002</v>
       </c>
-      <c r="H27" s="25">
+      <c r="M27" s="25">
         <v>3567</v>
       </c>
-      <c r="I27" s="25">
+      <c r="N27" s="25">
         <v>1875</v>
       </c>
-      <c r="J27" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="s">
+      <c r="O27" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5" t="s">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O27" s="5">
+      <c r="T27" s="5">
         <v>27</v>
       </c>
-      <c r="P27" s="14">
+      <c r="U27" s="14">
         <v>3</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="V27" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="R27" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="49" t="s">
         <v>34</v>
       </c>
@@ -2807,42 +3101,48 @@
         <v>10</v>
       </c>
       <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="32">
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="J28" s="51"/>
+      <c r="K28" s="25" t="b">
+        <f>NOT(O28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="32">
         <v>0.35291866028708102</v>
       </c>
-      <c r="H28" s="25">
+      <c r="M28" s="25">
         <v>5225</v>
       </c>
-      <c r="I28" s="25">
+      <c r="N28" s="25">
         <v>1844</v>
       </c>
-      <c r="J28" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="s">
+      <c r="O28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5" t="s">
+      <c r="Q28" s="9"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O28" s="5">
+      <c r="T28" s="5">
         <v>66</v>
       </c>
-      <c r="P28" s="14">
+      <c r="U28" s="14">
         <v>3</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="V28" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="R28" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="49" t="s">
         <v>34</v>
       </c>
@@ -2856,42 +3156,48 @@
         <v>10</v>
       </c>
       <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="32">
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" s="51"/>
+      <c r="K29" s="25" t="b">
+        <f>NOT(O29)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="32">
         <v>0.13313161875945501</v>
       </c>
-      <c r="H29" s="25">
+      <c r="M29" s="25">
         <v>5949</v>
       </c>
-      <c r="I29" s="25">
+      <c r="N29" s="25">
         <v>792</v>
       </c>
-      <c r="J29" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5" t="s">
+      <c r="O29" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5" t="s">
+      <c r="Q29" s="9"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O29" s="5">
+      <c r="T29" s="5">
         <v>35</v>
       </c>
-      <c r="P29" s="14">
+      <c r="U29" s="14">
         <v>3</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="V29" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="R29" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="52" t="s">
         <v>34</v>
       </c>
@@ -2905,34 +3211,38 @@
         <v>24</v>
       </c>
       <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="25" t="b">
+        <f>NOT(O30)</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="30"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5" t="s">
+      <c r="Q30" s="9"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O30" s="5">
+      <c r="T30" s="5">
         <v>48</v>
       </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="5" t="s">
+      <c r="U30" s="14"/>
+      <c r="V30" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="R30" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="55" t="s">
         <v>39</v>
       </c>
@@ -2948,34 +3258,40 @@
       <c r="E31" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="32">
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" s="57"/>
+      <c r="K31" s="25" t="b">
+        <f>NOT(O31)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="32">
         <v>0.55083655083655003</v>
       </c>
-      <c r="H31" s="25">
+      <c r="M31" s="25">
         <v>1554</v>
       </c>
-      <c r="I31" s="25">
+      <c r="N31" s="25">
         <v>856</v>
       </c>
-      <c r="J31" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="13" t="s">
+      <c r="O31" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q31" s="9"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="55" t="s">
         <v>39</v>
       </c>
@@ -2991,34 +3307,40 @@
       <c r="E32" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="57"/>
-      <c r="G32" s="32">
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" s="57"/>
+      <c r="K32" s="25" t="b">
+        <f>NOT(O32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="32">
         <v>0.5</v>
       </c>
-      <c r="H32" s="25">
+      <c r="M32" s="25">
         <v>1064</v>
       </c>
-      <c r="I32" s="25">
+      <c r="N32" s="25">
         <v>532</v>
       </c>
-      <c r="J32" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="13" t="s">
+      <c r="O32" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q32" s="9"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="55" t="s">
         <v>39</v>
       </c>
@@ -3034,34 +3356,40 @@
       <c r="E33" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="32">
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="25" t="b">
+        <f>NOT(O33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="32">
         <v>0.45016077170418001</v>
       </c>
-      <c r="H33" s="25">
+      <c r="M33" s="25">
         <v>622</v>
       </c>
-      <c r="I33" s="25">
+      <c r="N33" s="25">
         <v>280</v>
       </c>
-      <c r="J33" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="15" t="s">
+      <c r="O33" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q33" s="9"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+    </row>
+    <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="55" t="s">
         <v>39</v>
       </c>
@@ -3075,34 +3403,40 @@
         <v>10</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="32">
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="25" t="b">
+        <f>NOT(O34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="32">
         <v>0.423401090728805</v>
       </c>
-      <c r="H34" s="25">
+      <c r="M34" s="25">
         <v>2017</v>
       </c>
-      <c r="I34" s="25">
+      <c r="N34" s="25">
         <v>854</v>
       </c>
-      <c r="J34" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" s="13" t="s">
+      <c r="O34" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q34" s="9"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+    </row>
+    <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="55" t="s">
         <v>39</v>
       </c>
@@ -3116,34 +3450,40 @@
         <v>10</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="32">
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="25" t="b">
+        <f>NOT(O35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="32">
         <v>0.37193627450980299</v>
       </c>
-      <c r="H35" s="25">
+      <c r="M35" s="25">
         <v>1632</v>
       </c>
-      <c r="I35" s="25">
+      <c r="N35" s="25">
         <v>607</v>
       </c>
-      <c r="J35" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" s="13" t="s">
+      <c r="O35" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q35" s="9"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="55" t="s">
         <v>39</v>
       </c>
@@ -3159,34 +3499,40 @@
       <c r="E36" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="32">
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" s="57"/>
+      <c r="K36" s="25" t="b">
+        <f>NOT(O36)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="32">
         <v>0.29105873550317901</v>
       </c>
-      <c r="H36" s="25">
+      <c r="M36" s="25">
         <v>2673</v>
       </c>
-      <c r="I36" s="25">
+      <c r="N36" s="25">
         <v>778</v>
       </c>
-      <c r="J36" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" s="15" t="s">
+      <c r="O36" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q36" s="9"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="5"/>
+    </row>
+    <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="55" t="s">
         <v>39</v>
       </c>
@@ -3202,34 +3548,40 @@
       <c r="E37" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="32">
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" s="57"/>
+      <c r="K37" s="25" t="b">
+        <f>NOT(O37)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="32">
         <v>0.172672672672672</v>
       </c>
-      <c r="H37" s="25">
+      <c r="M37" s="25">
         <v>666</v>
       </c>
-      <c r="I37" s="25">
+      <c r="N37" s="25">
         <v>115</v>
       </c>
-      <c r="J37" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" s="13" t="s">
+      <c r="O37" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q37" s="9"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+    </row>
+    <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="55" t="s">
         <v>39</v>
       </c>
@@ -3245,34 +3597,40 @@
       <c r="E38" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="32">
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" s="57"/>
+      <c r="K38" s="25" t="b">
+        <f>NOT(O38)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="32">
         <v>6.8261086198305898E-2</v>
       </c>
-      <c r="H38" s="25">
+      <c r="M38" s="25">
         <v>2007</v>
       </c>
-      <c r="I38" s="25">
+      <c r="N38" s="25">
         <v>137</v>
       </c>
-      <c r="J38" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="15" t="s">
+      <c r="O38" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q38" s="9"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="5"/>
+    </row>
+    <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
@@ -3286,32 +3644,35 @@
         <v>49</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="30"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" s="15" t="s">
+      <c r="J39" s="26"/>
+      <c r="K39" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="30"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="5" t="s">
+      <c r="Q39" s="9"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O39" s="6">
+      <c r="T39" s="6">
         <v>52.334246575342469</v>
       </c>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+    </row>
+    <row r="40" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
@@ -3325,32 +3686,35 @@
         <v>49</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="30"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" s="15" t="s">
+      <c r="J40" s="26"/>
+      <c r="K40" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="30"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="5" t="s">
+      <c r="Q40" s="9"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O40" s="6">
+      <c r="T40" s="6">
         <v>62.824657534246576</v>
       </c>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -3364,32 +3728,35 @@
         <v>49</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="30"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="15" t="s">
+      <c r="J41" s="26"/>
+      <c r="K41" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="30"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="5" t="s">
+      <c r="Q41" s="9"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O41" s="6">
+      <c r="T41" s="6">
         <v>58.43013698630137</v>
       </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>39</v>
       </c>
@@ -3403,32 +3770,35 @@
         <v>49</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="30"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="15" t="s">
+      <c r="J42" s="26"/>
+      <c r="K42" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="30"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5" t="s">
+      <c r="Q42" s="9"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O42" s="6">
+      <c r="T42" s="6">
         <v>41.156164383561645</v>
       </c>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>39</v>
       </c>
@@ -3442,32 +3812,35 @@
         <v>49</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="30"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15" t="s">
+      <c r="J43" s="26"/>
+      <c r="K43" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="30"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5" t="s">
+      <c r="Q43" s="9"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O43" s="6">
+      <c r="T43" s="6">
         <v>40.638356164383559</v>
       </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>39</v>
       </c>
@@ -3481,32 +3854,35 @@
         <v>49</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="30"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" s="15" t="s">
+      <c r="J44" s="26"/>
+      <c r="K44" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="30"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="L44" s="9"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5" t="s">
+      <c r="Q44" s="9"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O44" s="6">
+      <c r="T44" s="6">
         <v>46.282191780821918</v>
       </c>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
         <v>39</v>
       </c>
@@ -3520,32 +3896,35 @@
         <v>49</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="30"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" s="15" t="s">
+      <c r="J45" s="26"/>
+      <c r="K45" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="30"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5" t="s">
+      <c r="Q45" s="9"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O45" s="6">
+      <c r="T45" s="6">
         <v>46.052054794520551</v>
       </c>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>39</v>
       </c>
@@ -3559,32 +3938,35 @@
         <v>49</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="30"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" s="15" t="s">
+      <c r="J46" s="26"/>
+      <c r="K46" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="30"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5" t="s">
+      <c r="Q46" s="9"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O46" s="6">
+      <c r="T46" s="6">
         <v>39.252054794520546</v>
       </c>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>39</v>
       </c>
@@ -3598,32 +3980,35 @@
         <v>49</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="30"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15" t="s">
+      <c r="J47" s="26"/>
+      <c r="K47" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="30"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5" t="s">
+      <c r="Q47" s="9"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O47" s="6">
+      <c r="T47" s="6">
         <v>39.849315068493148</v>
       </c>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>39</v>
       </c>
@@ -3637,32 +4022,35 @@
         <v>49</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="30"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" s="15" t="s">
+      <c r="J48" s="26"/>
+      <c r="K48" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="30"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="L48" s="9"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5" t="s">
+      <c r="Q48" s="9"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O48" s="6">
+      <c r="T48" s="6">
         <v>40.517808219178079</v>
       </c>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+    </row>
+    <row r="49" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
         <v>39</v>
       </c>
@@ -3676,32 +4064,35 @@
         <v>49</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="30"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15" t="s">
+      <c r="J49" s="26"/>
+      <c r="K49" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="30"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="L49" s="9"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5" t="s">
+      <c r="Q49" s="9"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O49" s="6">
+      <c r="T49" s="6">
         <v>39.336986301369862</v>
       </c>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+    </row>
+    <row r="50" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
         <v>39</v>
       </c>
@@ -3715,32 +4106,35 @@
         <v>49</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="30"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" s="15" t="s">
+      <c r="J50" s="26"/>
+      <c r="K50" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="30"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5" t="s">
+      <c r="Q50" s="9"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O50" s="6">
+      <c r="T50" s="6">
         <v>39.556164383561644</v>
       </c>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+    </row>
+    <row r="51" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
         <v>39</v>
       </c>
@@ -3754,32 +4148,35 @@
         <v>49</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="30"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" s="15" t="s">
+      <c r="J51" s="26"/>
+      <c r="K51" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="30"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="L51" s="9"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5" t="s">
+      <c r="Q51" s="9"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O51" s="6">
+      <c r="T51" s="6">
         <v>39.556164383561644</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+    </row>
+    <row r="52" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="8" t="s">
         <v>39</v>
       </c>
@@ -3793,32 +4190,35 @@
         <v>49</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="30"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" s="15" t="s">
+      <c r="J52" s="26"/>
+      <c r="K52" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="30"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="L52" s="9"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5" t="s">
+      <c r="Q52" s="9"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O52" s="6">
+      <c r="T52" s="6">
         <v>47.843835616438355</v>
       </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+    </row>
+    <row r="53" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="8" t="s">
         <v>39</v>
       </c>
@@ -3832,32 +4232,35 @@
         <v>49</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="30"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15" t="s">
+      <c r="J53" s="26"/>
+      <c r="K53" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="30"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="L53" s="9"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5" t="s">
+      <c r="Q53" s="9"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O53" s="6">
+      <c r="T53" s="6">
         <v>48.112328767123287</v>
       </c>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+    </row>
+    <row r="54" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
@@ -3871,32 +4274,35 @@
         <v>49</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="30"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" s="15" t="s">
+      <c r="J54" s="26"/>
+      <c r="K54" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="30"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="L54" s="9"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5" t="s">
+      <c r="Q54" s="9"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O54" s="6">
+      <c r="T54" s="6">
         <v>47.613698630136987</v>
       </c>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+    </row>
+    <row r="55" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
         <v>39</v>
       </c>
@@ -3910,32 +4316,35 @@
         <v>49</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="30"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15" t="s">
+      <c r="J55" s="26"/>
+      <c r="K55" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="30"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="L55" s="9"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5" t="s">
+      <c r="Q55" s="9"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O55" s="6">
+      <c r="T55" s="6">
         <v>44.739726027397261</v>
       </c>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+    </row>
+    <row r="56" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="8" t="s">
         <v>39</v>
       </c>
@@ -3949,32 +4358,35 @@
         <v>49</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="30"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" s="15" t="s">
+      <c r="J56" s="26"/>
+      <c r="K56" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="30"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="L56" s="9"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5" t="s">
+      <c r="Q56" s="9"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O56" s="6">
+      <c r="T56" s="6">
         <v>37.794520547945204</v>
       </c>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="58" t="s">
         <v>39</v>
       </c>
@@ -3988,32 +4400,36 @@
         <v>24</v>
       </c>
       <c r="E57" s="59"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K57" s="15" t="s">
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="25" t="b">
+        <f>NOT(O57)</f>
+        <v>1</v>
+      </c>
+      <c r="L57" s="30"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="L57" s="9"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5" t="s">
+      <c r="Q57" s="9"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O57" s="6">
+      <c r="T57" s="6">
         <v>37.471232876712328</v>
       </c>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+    </row>
+    <row r="58" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="58" t="s">
         <v>39</v>
       </c>
@@ -4027,71 +4443,83 @@
         <v>24</v>
       </c>
       <c r="E58" s="59"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" s="15" t="s">
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="25" t="b">
+        <f>NOT(O58)</f>
+        <v>1</v>
+      </c>
+      <c r="L58" s="30"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="L58" s="9"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5" t="s">
+      <c r="Q58" s="9"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O58" s="6">
+      <c r="T58" s="6">
         <v>36.589041095890408</v>
       </c>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="58" t="s">
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+    </row>
+    <row r="59" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="59"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" s="15" t="s">
+      <c r="E59" s="80"/>
+      <c r="F59" s="80">
+        <v>355</v>
+      </c>
+      <c r="G59" s="80">
+        <v>316</v>
+      </c>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="25" t="b">
+        <f>NOT(O59)</f>
+        <v>1</v>
+      </c>
+      <c r="L59" s="30"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="L59" s="9"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5" t="s">
+      <c r="Q59" s="9"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O59" s="6">
+      <c r="T59" s="6">
         <v>65.569863013698637</v>
       </c>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="60" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="58" t="s">
         <v>39</v>
       </c>
@@ -4105,71 +4533,83 @@
         <v>24</v>
       </c>
       <c r="E60" s="59"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" s="15" t="s">
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="25" t="b">
+        <f>NOT(O60)</f>
+        <v>1</v>
+      </c>
+      <c r="L60" s="30"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="L60" s="9"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5" t="s">
+      <c r="Q60" s="9"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O60" s="6">
+      <c r="T60" s="6">
         <v>40.227397260273975</v>
       </c>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="58" t="s">
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+    </row>
+    <row r="61" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" s="15" t="s">
+      <c r="E61" s="80"/>
+      <c r="F61" s="80">
+        <v>281</v>
+      </c>
+      <c r="G61" s="80">
+        <v>73</v>
+      </c>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="25" t="b">
+        <f>NOT(O61)</f>
+        <v>1</v>
+      </c>
+      <c r="L61" s="30"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="L61" s="9"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5" t="s">
+      <c r="Q61" s="9"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O61" s="6">
+      <c r="T61" s="6">
         <v>39.838356164383562</v>
       </c>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="58" t="s">
         <v>39</v>
       </c>
@@ -4183,32 +4623,36 @@
         <v>24</v>
       </c>
       <c r="E62" s="59"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" s="15" t="s">
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="25" t="b">
+        <f>NOT(O62)</f>
+        <v>1</v>
+      </c>
+      <c r="L62" s="30"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="L62" s="9"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5" t="s">
+      <c r="Q62" s="9"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O62" s="6">
+      <c r="T62" s="6">
         <v>41.098630136986301</v>
       </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+    </row>
+    <row r="63" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="58" t="s">
         <v>39</v>
       </c>
@@ -4222,32 +4666,36 @@
         <v>24</v>
       </c>
       <c r="E63" s="59"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" s="15" t="s">
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="25" t="b">
+        <f>NOT(O63)</f>
+        <v>1</v>
+      </c>
+      <c r="L63" s="30"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="L63" s="9"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5" t="s">
+      <c r="Q63" s="9"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O63" s="6">
+      <c r="T63" s="6">
         <v>51.876712328767127</v>
       </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+    </row>
+    <row r="64" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="58" t="s">
         <v>39</v>
       </c>
@@ -4261,32 +4709,36 @@
         <v>24</v>
       </c>
       <c r="E64" s="59"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" s="15" t="s">
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="25" t="b">
+        <f>NOT(O64)</f>
+        <v>1</v>
+      </c>
+      <c r="L64" s="30"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L64" s="9"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5" t="s">
+      <c r="Q64" s="9"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O64" s="6">
+      <c r="T64" s="6">
         <v>51.876712328767127</v>
       </c>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="58" t="s">
         <v>39</v>
       </c>
@@ -4300,32 +4752,36 @@
         <v>24</v>
       </c>
       <c r="E65" s="59"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" s="15" t="s">
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="25" t="b">
+        <f>NOT(O65)</f>
+        <v>1</v>
+      </c>
+      <c r="L65" s="30"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="L65" s="9"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5" t="s">
+      <c r="Q65" s="9"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O65" s="6">
+      <c r="T65" s="6">
         <v>73.558904109589037</v>
       </c>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="66" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="58" t="s">
         <v>39</v>
       </c>
@@ -4339,32 +4795,36 @@
         <v>24</v>
       </c>
       <c r="E66" s="59"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" s="15" t="s">
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="25" t="b">
+        <f>NOT(O66)</f>
+        <v>1</v>
+      </c>
+      <c r="L66" s="30"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P66" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="L66" s="9"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5" t="s">
+      <c r="Q66" s="9"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O66" s="6">
+      <c r="T66" s="6">
         <v>73.558904109589037</v>
       </c>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="67" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
         <v>77</v>
       </c>
@@ -4380,28 +4840,32 @@
       <c r="E67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="26"/>
-      <c r="G67" s="30"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="L67" s="9"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="25" t="b">
+        <f>NOT(O67)</f>
+        <v>1</v>
+      </c>
+      <c r="L67" s="30"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="25" t="b">
-        <f t="shared" ref="R67:R114" si="2">NOT(J67)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O67" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>77</v>
       </c>
@@ -4417,28 +4881,32 @@
       <c r="E68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="30"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="L68" s="9"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="25" t="b">
+        <f>NOT(O68)</f>
+        <v>1</v>
+      </c>
+      <c r="L68" s="30"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O68" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+    </row>
+    <row r="69" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>77</v>
       </c>
@@ -4454,28 +4922,32 @@
       <c r="E69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="26"/>
-      <c r="G69" s="30"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="L69" s="9"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="25" t="b">
+        <f>NOT(O69)</f>
+        <v>1</v>
+      </c>
+      <c r="L69" s="30"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O69" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P69" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+    </row>
+    <row r="70" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>77</v>
       </c>
@@ -4491,27 +4963,31 @@
       <c r="E70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="30"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="L70" s="9"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="30"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O70" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+    </row>
+    <row r="71" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="64" t="s">
         <v>83</v>
       </c>
@@ -4525,42 +5001,48 @@
         <v>10</v>
       </c>
       <c r="E71" s="65"/>
-      <c r="F71" s="66" t="s">
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="J71" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="32">
+      <c r="K71" s="25" t="b">
+        <f>NOT(O71)</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="32">
         <v>0.115989927604658</v>
       </c>
-      <c r="H71" s="25">
+      <c r="M71" s="25">
         <v>6354</v>
       </c>
-      <c r="I71" s="25">
+      <c r="N71" s="25">
         <v>737</v>
       </c>
-      <c r="J71" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K71" s="15" t="s">
+      <c r="O71" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P71" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="L71" s="9" t="s">
+      <c r="Q71" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5" t="s">
+      <c r="R71" s="5"/>
+      <c r="S71" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O71" s="5">
+      <c r="T71" s="5">
         <v>32</v>
       </c>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+    </row>
+    <row r="72" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="64" t="s">
         <v>83</v>
       </c>
@@ -4574,42 +5056,48 @@
         <v>10</v>
       </c>
       <c r="E72" s="65"/>
-      <c r="F72" s="66" t="s">
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="J72" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="32">
+      <c r="K72" s="25" t="b">
+        <f>NOT(O72)</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="32">
         <v>4.9027552674230097E-2</v>
       </c>
-      <c r="H72" s="25">
+      <c r="M72" s="25">
         <v>4936</v>
       </c>
-      <c r="I72" s="25">
+      <c r="N72" s="25">
         <v>242</v>
       </c>
-      <c r="J72" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K72" s="15" t="s">
+      <c r="O72" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P72" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="L72" s="9" t="s">
+      <c r="Q72" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5" t="s">
+      <c r="R72" s="5"/>
+      <c r="S72" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O72" s="16">
+      <c r="T72" s="16">
         <v>51</v>
       </c>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+    </row>
+    <row r="73" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="64" t="s">
         <v>83</v>
       </c>
@@ -4623,42 +5111,48 @@
         <v>10</v>
       </c>
       <c r="E73" s="65"/>
-      <c r="F73" s="66" t="s">
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="J73" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G73" s="32">
+      <c r="K73" s="25" t="b">
+        <f>NOT(O73)</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="32">
         <v>3.03454715219421E-2</v>
       </c>
-      <c r="H73" s="25">
+      <c r="M73" s="25">
         <v>4284</v>
       </c>
-      <c r="I73" s="25">
+      <c r="N73" s="25">
         <v>130</v>
       </c>
-      <c r="J73" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K73" s="15" t="s">
+      <c r="O73" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P73" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="L73" s="9" t="s">
+      <c r="Q73" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5" t="s">
+      <c r="R73" s="5"/>
+      <c r="S73" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O73" s="16">
+      <c r="T73" s="16">
         <v>27</v>
       </c>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+    </row>
+    <row r="74" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="61" t="s">
         <v>83</v>
       </c>
@@ -4672,30 +5166,34 @@
         <v>24</v>
       </c>
       <c r="E74" s="62"/>
-      <c r="F74" s="63" t="s">
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="G74" s="30"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="L74" s="9"/>
+      <c r="K74" s="25" t="b">
+        <f>NOT(O74)</f>
+        <v>1</v>
+      </c>
+      <c r="L74" s="30"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O74" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+    </row>
+    <row r="75" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="61" t="s">
         <v>83</v>
       </c>
@@ -4709,30 +5207,34 @@
         <v>24</v>
       </c>
       <c r="E75" s="62"/>
-      <c r="F75" s="63" t="s">
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="L75" s="9"/>
+      <c r="K75" s="25" t="b">
+        <f>NOT(O75)</f>
+        <v>1</v>
+      </c>
+      <c r="L75" s="30"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P75" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+    </row>
+    <row r="76" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="61" t="s">
         <v>83</v>
       </c>
@@ -4746,30 +5248,34 @@
         <v>24</v>
       </c>
       <c r="E76" s="62"/>
-      <c r="F76" s="63" t="s">
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="G76" s="30"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="L76" s="9"/>
+      <c r="K76" s="25" t="b">
+        <f>NOT(O76)</f>
+        <v>1</v>
+      </c>
+      <c r="L76" s="30"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O76" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+    </row>
+    <row r="77" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="61" t="s">
         <v>83</v>
       </c>
@@ -4783,30 +5289,34 @@
         <v>24</v>
       </c>
       <c r="E77" s="62"/>
-      <c r="F77" s="63" t="s">
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="L77" s="9"/>
+      <c r="K77" s="25" t="b">
+        <f>NOT(O77)</f>
+        <v>1</v>
+      </c>
+      <c r="L77" s="30"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O77" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P77" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+    </row>
+    <row r="78" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="61" t="s">
         <v>83</v>
       </c>
@@ -4820,30 +5330,34 @@
         <v>24</v>
       </c>
       <c r="E78" s="62"/>
-      <c r="F78" s="63" t="s">
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="L78" s="9"/>
+      <c r="K78" s="25" t="b">
+        <f>NOT(O78)</f>
+        <v>1</v>
+      </c>
+      <c r="L78" s="30"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O78" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+    </row>
+    <row r="79" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="61" t="s">
         <v>83</v>
       </c>
@@ -4857,30 +5371,34 @@
         <v>24</v>
       </c>
       <c r="E79" s="62"/>
-      <c r="F79" s="63" t="s">
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" s="15" t="s">
+      <c r="K79" s="25" t="b">
+        <f>NOT(O79)</f>
+        <v>1</v>
+      </c>
+      <c r="L79" s="30"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P79" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="L79" s="9"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q79" s="9"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+    </row>
+    <row r="80" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="67" t="s">
         <v>93</v>
       </c>
@@ -4894,36 +5412,42 @@
         <v>10</v>
       </c>
       <c r="E80" s="68"/>
-      <c r="F80" s="69" t="s">
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="J80" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="G80" s="32">
+      <c r="K80" s="25" t="b">
+        <f>NOT(O80)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="32">
         <v>0.27723590676144799</v>
       </c>
-      <c r="H80" s="25">
+      <c r="M80" s="25">
         <v>6049</v>
       </c>
-      <c r="I80" s="25">
+      <c r="N80" s="25">
         <v>1677</v>
       </c>
-      <c r="J80" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K80" s="15" t="s">
+      <c r="O80" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P80" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="L80" s="16"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q80" s="16"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+    </row>
+    <row r="81" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="67" t="s">
         <v>93</v>
       </c>
@@ -4937,42 +5461,48 @@
         <v>10</v>
       </c>
       <c r="E81" s="68"/>
-      <c r="F81" s="69" t="s">
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="J81" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G81" s="32">
+      <c r="K81" s="25" t="b">
+        <f>NOT(O81)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="32">
         <v>0.18932617769827001</v>
       </c>
-      <c r="H81" s="25">
+      <c r="M81" s="25">
         <v>6708</v>
       </c>
-      <c r="I81" s="25">
+      <c r="N81" s="25">
         <v>1270</v>
       </c>
-      <c r="J81" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K81" s="15" t="s">
+      <c r="O81" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P81" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="Q81" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5" t="s">
+      <c r="R81" s="5"/>
+      <c r="S81" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O81" s="16">
+      <c r="T81" s="16">
         <v>27</v>
       </c>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+    </row>
+    <row r="82" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="67" t="s">
         <v>93</v>
       </c>
@@ -4986,42 +5516,48 @@
         <v>10</v>
       </c>
       <c r="E82" s="68"/>
-      <c r="F82" s="69" t="s">
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="J82" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="G82" s="32">
+      <c r="K82" s="25" t="b">
+        <f>NOT(O82)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="32">
         <v>0.150320543488661</v>
       </c>
-      <c r="H82" s="25">
+      <c r="M82" s="25">
         <v>10451</v>
       </c>
-      <c r="I82" s="25">
+      <c r="N82" s="25">
         <v>1571</v>
       </c>
-      <c r="J82" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K82" s="13" t="s">
+      <c r="O82" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P82" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="Q82" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5" t="s">
+      <c r="R82" s="5"/>
+      <c r="S82" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O82" s="5">
+      <c r="T82" s="5">
         <v>32</v>
       </c>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+    </row>
+    <row r="83" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="67" t="s">
         <v>93</v>
       </c>
@@ -5035,42 +5571,48 @@
         <v>10</v>
       </c>
       <c r="E83" s="68"/>
-      <c r="F83" s="69" t="s">
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="J83" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="G83" s="32">
+      <c r="K83" s="25" t="b">
+        <f>NOT(O83)</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="32">
         <v>0.14339339339339299</v>
       </c>
-      <c r="H83" s="25">
+      <c r="M83" s="25">
         <v>1332</v>
       </c>
-      <c r="I83" s="25">
+      <c r="N83" s="25">
         <v>190</v>
       </c>
-      <c r="J83" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K83" s="13" t="s">
+      <c r="O83" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P83" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="Q83" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5" t="s">
+      <c r="R83" s="5"/>
+      <c r="S83" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O83" s="16">
+      <c r="T83" s="16">
         <v>27</v>
       </c>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+    </row>
+    <row r="84" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="67" t="s">
         <v>93</v>
       </c>
@@ -5084,42 +5626,48 @@
         <v>10</v>
       </c>
       <c r="E84" s="68"/>
-      <c r="F84" s="69" t="s">
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="J84" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="32">
+      <c r="K84" s="25" t="b">
+        <f>NOT(O84)</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="32">
         <v>9.1139883219091097E-2</v>
       </c>
-      <c r="H84" s="25">
+      <c r="M84" s="25">
         <v>3939</v>
       </c>
-      <c r="I84" s="25">
+      <c r="N84" s="25">
         <v>359</v>
       </c>
-      <c r="J84" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K84" s="13" t="s">
+      <c r="O84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P84" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="L84" s="9" t="s">
+      <c r="Q84" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5" t="s">
+      <c r="R84" s="5"/>
+      <c r="S84" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O84" s="5">
+      <c r="T84" s="5">
         <v>32</v>
       </c>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+    </row>
+    <row r="85" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="67" t="s">
         <v>93</v>
       </c>
@@ -5133,42 +5681,48 @@
         <v>10</v>
       </c>
       <c r="E85" s="68"/>
-      <c r="F85" s="69" t="s">
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="J85" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G85" s="32">
+      <c r="K85" s="25" t="b">
+        <f>NOT(O85)</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="32">
         <v>8.2910442427274605E-2</v>
       </c>
-      <c r="H85" s="25">
+      <c r="M85" s="25">
         <v>13991</v>
       </c>
-      <c r="I85" s="25">
+      <c r="N85" s="25">
         <v>1160</v>
       </c>
-      <c r="J85" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K85" s="13" t="s">
+      <c r="O85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P85" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="L85" s="16" t="s">
+      <c r="Q85" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="M85" s="5"/>
-      <c r="N85" s="17" t="s">
+      <c r="R85" s="5"/>
+      <c r="S85" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="O85" s="5">
+      <c r="T85" s="5">
         <v>27</v>
       </c>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+    </row>
+    <row r="86" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="67" t="s">
         <v>93</v>
       </c>
@@ -5182,42 +5736,48 @@
         <v>10</v>
       </c>
       <c r="E86" s="68"/>
-      <c r="F86" s="69" t="s">
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="J86" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="G86" s="32">
+      <c r="K86" s="25" t="b">
+        <f>NOT(O86)</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="32">
         <v>6.7207112970711302E-2</v>
       </c>
-      <c r="H86" s="25">
+      <c r="M86" s="25">
         <v>3824</v>
       </c>
-      <c r="I86" s="25">
+      <c r="N86" s="25">
         <v>257</v>
       </c>
-      <c r="J86" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K86" s="13" t="s">
+      <c r="O86" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P86" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="L86" s="16" t="s">
+      <c r="Q86" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="M86" s="5"/>
-      <c r="N86" s="17" t="s">
+      <c r="R86" s="5"/>
+      <c r="S86" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="O86" s="5">
+      <c r="T86" s="5">
         <v>27</v>
       </c>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+    </row>
+    <row r="87" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="67" t="s">
         <v>93</v>
       </c>
@@ -5231,42 +5791,48 @@
         <v>10</v>
       </c>
       <c r="E87" s="68"/>
-      <c r="F87" s="69" t="s">
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="J87" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="G87" s="32">
+      <c r="K87" s="25" t="b">
+        <f>NOT(O87)</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="32">
         <v>3.89243391066545E-2</v>
       </c>
-      <c r="H87" s="25">
+      <c r="M87" s="25">
         <v>10970</v>
       </c>
-      <c r="I87" s="25">
+      <c r="N87" s="25">
         <v>427</v>
       </c>
-      <c r="J87" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K87" s="15" t="s">
+      <c r="O87" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P87" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="L87" s="9" t="s">
+      <c r="Q87" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5" t="s">
+      <c r="R87" s="5"/>
+      <c r="S87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O87" s="16">
+      <c r="T87" s="16">
         <v>51</v>
       </c>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+    </row>
+    <row r="88" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="70" t="s">
         <v>93</v>
       </c>
@@ -5280,30 +5846,34 @@
         <v>24</v>
       </c>
       <c r="E88" s="71"/>
-      <c r="F88" s="72" t="s">
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="G88" s="30"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" s="13" t="s">
+      <c r="K88" s="25" t="b">
+        <f>NOT(O88)</f>
+        <v>1</v>
+      </c>
+      <c r="L88" s="30"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P88" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="L88" s="16"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q88" s="16"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+    </row>
+    <row r="89" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="70" t="s">
         <v>93</v>
       </c>
@@ -5317,30 +5887,34 @@
         <v>24</v>
       </c>
       <c r="E89" s="71"/>
-      <c r="F89" s="72" t="s">
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="G89" s="30"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" s="13" t="s">
+      <c r="K89" s="25" t="b">
+        <f>NOT(O89)</f>
+        <v>1</v>
+      </c>
+      <c r="L89" s="30"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P89" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="L89" s="9"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q89" s="9"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+    </row>
+    <row r="90" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="70" t="s">
         <v>93</v>
       </c>
@@ -5354,30 +5928,34 @@
         <v>24</v>
       </c>
       <c r="E90" s="71"/>
-      <c r="F90" s="72" t="s">
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="G90" s="30"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" s="13" t="s">
+      <c r="K90" s="25" t="b">
+        <f>NOT(O90)</f>
+        <v>1</v>
+      </c>
+      <c r="L90" s="30"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P90" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="L90" s="9"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q90" s="9"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+    </row>
+    <row r="91" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="70" t="s">
         <v>93</v>
       </c>
@@ -5391,30 +5969,34 @@
         <v>24</v>
       </c>
       <c r="E91" s="71"/>
-      <c r="F91" s="72" t="s">
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="G91" s="30"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="13" t="s">
+      <c r="K91" s="25" t="b">
+        <f>NOT(O91)</f>
+        <v>1</v>
+      </c>
+      <c r="L91" s="30"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P91" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="L91" s="9"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q91" s="9"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+    </row>
+    <row r="92" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="70" t="s">
         <v>93</v>
       </c>
@@ -5428,30 +6010,34 @@
         <v>24</v>
       </c>
       <c r="E92" s="71"/>
-      <c r="F92" s="72" t="s">
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="G92" s="30"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" s="13" t="s">
+      <c r="K92" s="25" t="b">
+        <f>NOT(O92)</f>
+        <v>1</v>
+      </c>
+      <c r="L92" s="30"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P92" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="L92" s="9"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q92" s="9"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+    </row>
+    <row r="93" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="70" t="s">
         <v>93</v>
       </c>
@@ -5465,30 +6051,34 @@
         <v>24</v>
       </c>
       <c r="E93" s="71"/>
-      <c r="F93" s="72" t="s">
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="G93" s="30"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="L93" s="9"/>
+      <c r="K93" s="25" t="b">
+        <f>NOT(O93)</f>
+        <v>1</v>
+      </c>
+      <c r="L93" s="30"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O93" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P93" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+    </row>
+    <row r="94" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="20" t="s">
         <v>111</v>
       </c>
@@ -5502,42 +6092,48 @@
         <v>10</v>
       </c>
       <c r="E94" s="21"/>
-      <c r="F94" s="28" t="s">
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J94" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G94" s="31">
+      <c r="K94" s="25" t="b">
+        <f>NOT(O94)</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="31">
         <v>0.80361305361305302</v>
       </c>
-      <c r="H94" s="25">
+      <c r="M94" s="25">
         <v>1716</v>
       </c>
-      <c r="I94" s="25">
+      <c r="N94" s="25">
         <v>1379</v>
       </c>
-      <c r="J94" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K94" s="15" t="s">
+      <c r="O94" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P94" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="L94" s="9" t="s">
+      <c r="Q94" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5" t="s">
+      <c r="R94" s="5"/>
+      <c r="S94" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O94" s="5">
+      <c r="T94" s="5">
         <v>32</v>
       </c>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+    </row>
+    <row r="95" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="20" t="s">
         <v>111</v>
       </c>
@@ -5551,42 +6147,48 @@
         <v>10</v>
       </c>
       <c r="E95" s="21"/>
-      <c r="F95" s="28" t="s">
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J95" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G95" s="31">
+      <c r="K95" s="25" t="b">
+        <f>NOT(O95)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="31">
         <v>0.70785173375846899</v>
       </c>
-      <c r="H95" s="25">
+      <c r="M95" s="25">
         <v>2509</v>
       </c>
-      <c r="I95" s="25">
+      <c r="N95" s="25">
         <v>1776</v>
       </c>
-      <c r="J95" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K95" s="13" t="s">
+      <c r="O95" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P95" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="L95" s="9" t="s">
+      <c r="Q95" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="M95" s="5"/>
-      <c r="N95" s="16" t="s">
+      <c r="R95" s="5"/>
+      <c r="S95" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="O95" s="15">
+      <c r="T95" s="15">
         <v>45</v>
       </c>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+    </row>
+    <row r="96" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="20" t="s">
         <v>111</v>
       </c>
@@ -5600,42 +6202,48 @@
         <v>10</v>
       </c>
       <c r="E96" s="21"/>
-      <c r="F96" s="28" t="s">
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J96" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G96" s="31">
+      <c r="K96" s="25" t="b">
+        <f>NOT(O96)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="31">
         <v>0.61845345591856804</v>
       </c>
-      <c r="H96" s="25">
+      <c r="M96" s="25">
         <v>6091</v>
       </c>
-      <c r="I96" s="25">
+      <c r="N96" s="25">
         <v>3767</v>
       </c>
-      <c r="J96" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K96" s="15" t="s">
+      <c r="O96" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P96" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="L96" s="9" t="s">
+      <c r="Q96" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5" t="s">
+      <c r="R96" s="5"/>
+      <c r="S96" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O96" s="16">
+      <c r="T96" s="16">
         <v>27</v>
       </c>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+    </row>
+    <row r="97" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="20" t="s">
         <v>111</v>
       </c>
@@ -5649,42 +6257,48 @@
         <v>10</v>
       </c>
       <c r="E97" s="21"/>
-      <c r="F97" s="28" t="s">
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J97" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G97" s="31">
+      <c r="K97" s="25" t="b">
+        <f>NOT(O97)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="31">
         <v>0.60996462264150897</v>
       </c>
-      <c r="H97" s="25">
+      <c r="M97" s="25">
         <v>3392</v>
       </c>
-      <c r="I97" s="25">
+      <c r="N97" s="25">
         <v>2069</v>
       </c>
-      <c r="J97" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K97" s="13" t="s">
+      <c r="O97" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P97" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="L97" s="9" t="s">
+      <c r="Q97" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5" t="s">
+      <c r="R97" s="5"/>
+      <c r="S97" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O97" s="16">
+      <c r="T97" s="16">
         <v>27</v>
       </c>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+    </row>
+    <row r="98" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="20" t="s">
         <v>111</v>
       </c>
@@ -5698,42 +6312,48 @@
         <v>10</v>
       </c>
       <c r="E98" s="21"/>
-      <c r="F98" s="28" t="s">
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J98" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G98" s="31">
+      <c r="K98" s="25" t="b">
+        <f>NOT(O98)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="31">
         <v>0.60723514211886298</v>
       </c>
-      <c r="H98" s="25">
+      <c r="M98" s="25">
         <v>6192</v>
       </c>
-      <c r="I98" s="25">
+      <c r="N98" s="25">
         <v>3760</v>
       </c>
-      <c r="J98" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K98" s="13" t="s">
+      <c r="O98" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P98" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="L98" s="9" t="s">
+      <c r="Q98" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="M98" s="5"/>
-      <c r="N98" s="16" t="s">
+      <c r="R98" s="5"/>
+      <c r="S98" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="O98" s="15">
+      <c r="T98" s="15">
         <v>45</v>
       </c>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+    </row>
+    <row r="99" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="20" t="s">
         <v>111</v>
       </c>
@@ -5747,42 +6367,48 @@
         <v>10</v>
       </c>
       <c r="E99" s="21"/>
-      <c r="F99" s="28" t="s">
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J99" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G99" s="31">
+      <c r="K99" s="25" t="b">
+        <f>NOT(O99)</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="31">
         <v>0.57428503146658105</v>
       </c>
-      <c r="H99" s="25">
+      <c r="M99" s="25">
         <v>12553</v>
       </c>
-      <c r="I99" s="25">
+      <c r="N99" s="25">
         <v>7209</v>
       </c>
-      <c r="J99" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K99" s="13" t="s">
+      <c r="O99" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P99" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="L99" s="16" t="s">
+      <c r="Q99" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="M99" s="5"/>
-      <c r="N99" s="17" t="s">
+      <c r="R99" s="5"/>
+      <c r="S99" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="O99" s="5">
+      <c r="T99" s="5">
         <v>27</v>
       </c>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+    </row>
+    <row r="100" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="20" t="s">
         <v>111</v>
       </c>
@@ -5796,42 +6422,48 @@
         <v>10</v>
       </c>
       <c r="E100" s="21"/>
-      <c r="F100" s="28" t="s">
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J100" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G100" s="31">
+      <c r="K100" s="25" t="b">
+        <f>NOT(O100)</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="31">
         <v>0.55095455767679402</v>
       </c>
-      <c r="H100" s="25">
+      <c r="M100" s="25">
         <v>7438</v>
       </c>
-      <c r="I100" s="25">
+      <c r="N100" s="25">
         <v>4098</v>
       </c>
-      <c r="J100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K100" s="13" t="s">
+      <c r="O100" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P100" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="L100" s="9" t="s">
+      <c r="Q100" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5" t="s">
+      <c r="R100" s="5"/>
+      <c r="S100" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O100" s="5">
+      <c r="T100" s="5">
         <v>32</v>
       </c>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+    </row>
+    <row r="101" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="20" t="s">
         <v>111</v>
       </c>
@@ -5845,42 +6477,48 @@
         <v>10</v>
       </c>
       <c r="E101" s="21"/>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J101" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G101" s="32">
+      <c r="K101" s="25" t="b">
+        <f>NOT(O101)</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="32">
         <v>0.52573717402420295</v>
       </c>
-      <c r="H101" s="25">
+      <c r="M101" s="25">
         <v>11734</v>
       </c>
-      <c r="I101" s="25">
+      <c r="N101" s="25">
         <v>6169</v>
       </c>
-      <c r="J101" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K101" s="13" t="s">
+      <c r="O101" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P101" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="L101" s="9" t="s">
+      <c r="Q101" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5" t="s">
+      <c r="R101" s="5"/>
+      <c r="S101" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O101" s="16">
+      <c r="T101" s="16">
         <v>51</v>
       </c>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+    </row>
+    <row r="102" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="20" t="s">
         <v>111</v>
       </c>
@@ -5894,42 +6532,48 @@
         <v>10</v>
       </c>
       <c r="E102" s="21"/>
-      <c r="F102" s="28" t="s">
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J102" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="32">
+      <c r="K102" s="25" t="b">
+        <f>NOT(O102)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="32">
         <v>0.47960848287112501</v>
       </c>
-      <c r="H102" s="25">
+      <c r="M102" s="25">
         <v>6130</v>
       </c>
-      <c r="I102" s="25">
+      <c r="N102" s="25">
         <v>2940</v>
       </c>
-      <c r="J102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K102" s="15" t="s">
+      <c r="O102" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P102" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="L102" s="16" t="s">
+      <c r="Q102" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="M102" s="5"/>
-      <c r="N102" s="17" t="s">
+      <c r="R102" s="5"/>
+      <c r="S102" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="O102" s="5">
+      <c r="T102" s="5">
         <v>27</v>
       </c>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+    </row>
+    <row r="103" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="20" t="s">
         <v>111</v>
       </c>
@@ -5943,42 +6587,48 @@
         <v>10</v>
       </c>
       <c r="E103" s="21"/>
-      <c r="F103" s="28" t="s">
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J103" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G103" s="32">
+      <c r="K103" s="25" t="b">
+        <f>NOT(O103)</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="32">
         <v>0.26237288135593201</v>
       </c>
-      <c r="H103" s="25">
+      <c r="M103" s="25">
         <v>1475</v>
       </c>
-      <c r="I103" s="25">
+      <c r="N103" s="25">
         <v>387</v>
       </c>
-      <c r="J103" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K103" s="13" t="s">
+      <c r="O103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P103" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="L103" s="9" t="s">
+      <c r="Q103" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5" t="s">
+      <c r="R103" s="5"/>
+      <c r="S103" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O103" s="16">
+      <c r="T103" s="16">
         <v>51</v>
       </c>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+    </row>
+    <row r="104" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="73" t="s">
         <v>111</v>
       </c>
@@ -5992,30 +6642,34 @@
         <v>24</v>
       </c>
       <c r="E104" s="74"/>
-      <c r="F104" s="75" t="s">
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G104" s="30"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K104" s="13" t="s">
+      <c r="K104" s="25" t="b">
+        <f>NOT(O104)</f>
+        <v>1</v>
+      </c>
+      <c r="L104" s="30"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P104" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="L104" s="9"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q104" s="9"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="13"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+    </row>
+    <row r="105" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="73" t="s">
         <v>111</v>
       </c>
@@ -6029,30 +6683,34 @@
         <v>24</v>
       </c>
       <c r="E105" s="74"/>
-      <c r="F105" s="75" t="s">
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G105" s="30"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K105" s="13" t="s">
+      <c r="K105" s="25" t="b">
+        <f>NOT(O105)</f>
+        <v>1</v>
+      </c>
+      <c r="L105" s="30"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P105" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="L105" s="9"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q105" s="9"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+    </row>
+    <row r="106" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="73" t="s">
         <v>111</v>
       </c>
@@ -6066,30 +6724,34 @@
         <v>24</v>
       </c>
       <c r="E106" s="74"/>
-      <c r="F106" s="75" t="s">
+      <c r="F106" s="74"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G106" s="30"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" s="13" t="s">
+      <c r="K106" s="25" t="b">
+        <f>NOT(O106)</f>
+        <v>1</v>
+      </c>
+      <c r="L106" s="30"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P106" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="L106" s="9"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q106" s="9"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="13"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+    </row>
+    <row r="107" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="73" t="s">
         <v>111</v>
       </c>
@@ -6103,30 +6765,34 @@
         <v>24</v>
       </c>
       <c r="E107" s="74"/>
-      <c r="F107" s="75" t="s">
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G107" s="30"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K107" s="13" t="s">
+      <c r="K107" s="25" t="b">
+        <f>NOT(O107)</f>
+        <v>1</v>
+      </c>
+      <c r="L107" s="30"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P107" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="L107" s="9"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q107" s="9"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="17"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+    </row>
+    <row r="108" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="73" t="s">
         <v>111</v>
       </c>
@@ -6140,30 +6806,34 @@
         <v>24</v>
       </c>
       <c r="E108" s="74"/>
-      <c r="F108" s="75" t="s">
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G108" s="30"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K108" s="13" t="s">
+      <c r="K108" s="25" t="b">
+        <f>NOT(O108)</f>
+        <v>1</v>
+      </c>
+      <c r="L108" s="30"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P108" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="L108" s="9"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q108" s="9"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+    </row>
+    <row r="109" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="73" t="s">
         <v>111</v>
       </c>
@@ -6177,30 +6847,34 @@
         <v>24</v>
       </c>
       <c r="E109" s="74"/>
-      <c r="F109" s="75" t="s">
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G109" s="30"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K109" s="13" t="s">
+      <c r="K109" s="25" t="b">
+        <f>NOT(O109)</f>
+        <v>1</v>
+      </c>
+      <c r="L109" s="30"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P109" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="L109" s="9"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="13"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q109" s="9"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+    </row>
+    <row r="110" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="73" t="s">
         <v>111</v>
       </c>
@@ -6214,30 +6888,34 @@
         <v>24</v>
       </c>
       <c r="E110" s="74"/>
-      <c r="F110" s="75" t="s">
+      <c r="F110" s="74"/>
+      <c r="G110" s="74"/>
+      <c r="H110" s="74"/>
+      <c r="I110" s="74"/>
+      <c r="J110" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G110" s="30"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K110" s="13" t="s">
+      <c r="K110" s="25" t="b">
+        <f>NOT(O110)</f>
+        <v>1</v>
+      </c>
+      <c r="L110" s="30"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P110" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="L110" s="9"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q110" s="9"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="13"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+    </row>
+    <row r="111" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="73" t="s">
         <v>111</v>
       </c>
@@ -6251,30 +6929,34 @@
         <v>24</v>
       </c>
       <c r="E111" s="74"/>
-      <c r="F111" s="75" t="s">
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G111" s="30"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K111" s="13" t="s">
+      <c r="K111" s="25" t="b">
+        <f>NOT(O111)</f>
+        <v>1</v>
+      </c>
+      <c r="L111" s="30"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P111" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="L111" s="9"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="13"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q111" s="9"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="13"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+    </row>
+    <row r="112" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="73" t="s">
         <v>111</v>
       </c>
@@ -6288,30 +6970,34 @@
         <v>24</v>
       </c>
       <c r="E112" s="74"/>
-      <c r="F112" s="75" t="s">
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G112" s="30"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K112" s="13" t="s">
+      <c r="K112" s="25" t="b">
+        <f>NOT(O112)</f>
+        <v>1</v>
+      </c>
+      <c r="L112" s="30"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P112" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="L112" s="9"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="13"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q112" s="9"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="17"/>
+      <c r="T112" s="13"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
+    </row>
+    <row r="113" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="73" t="s">
         <v>111</v>
       </c>
@@ -6325,30 +7011,34 @@
         <v>24</v>
       </c>
       <c r="E113" s="74"/>
-      <c r="F113" s="75" t="s">
+      <c r="F113" s="74"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G113" s="30"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K113" s="13" t="s">
+      <c r="K113" s="25" t="b">
+        <f>NOT(O113)</f>
+        <v>1</v>
+      </c>
+      <c r="L113" s="30"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P113" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="L113" s="9"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="13"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q113" s="9"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="17"/>
+      <c r="T113" s="13"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+    </row>
+    <row r="114" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="34" t="s">
         <v>258</v>
       </c>
@@ -6362,48 +7052,52 @@
         <v>10</v>
       </c>
       <c r="E114" s="34"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="32">
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="35"/>
+      <c r="K114" s="25" t="b">
+        <f>NOT(O114)</f>
+        <v>0</v>
+      </c>
+      <c r="L114" s="32">
         <v>1.83920126116657E-2</v>
       </c>
-      <c r="H114">
+      <c r="M114">
         <v>5709</v>
       </c>
-      <c r="I114">
+      <c r="N114">
         <v>105</v>
       </c>
-      <c r="J114" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K114" s="5"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="13"/>
+      <c r="O114" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N115" s="4"/>
-      <c r="O115" s="3"/>
-    </row>
-    <row r="116" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="13"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+    </row>
+    <row r="115" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S115" s="4"/>
+      <c r="T115" s="3"/>
+    </row>
+    <row r="116" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7285,7 +7979,7 @@
     <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q1008">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V1008">
     <sortCondition ref="A1:A1008"/>
   </sortState>
   <conditionalFormatting sqref="A1:A10 A19:A1008">

--- a/sample_list_healthy.xlsx
+++ b/sample_list_healthy.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B21A57-D923-4E01-80C0-301E27A08EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FF1765-8384-4C51-8DBD-CE43D8667FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
     <sheet name="key" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samples!$A$1:$V$114</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -199,12 +202,37 @@
 Same as GSE249622 and 249793 but with different cell filtering. Shares supplement with GSE 249622</t>
       </text>
     </comment>
+    <comment ref="F109" authorId="3" shapeId="0" xr:uid="{235335E3-4B6D-4D5E-8985-A1F053CA83C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>randymi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+good doublets
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="275">
   <si>
     <t>GSE</t>
   </si>
@@ -1026,6 +1054,9 @@
   </si>
   <si>
     <t>Lesional</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
 </sst>
 </file>
@@ -1035,11 +1066,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1125,6 +1163,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1293,184 +1344,193 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1742,8 +1802,8 @@
   <dimension ref="A1:V1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1859,7 +1919,7 @@
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="25" t="b">
-        <f>NOT(O2)</f>
+        <f t="shared" ref="K2:K16" si="0">NOT(O2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="32">
@@ -1888,7 +1948,7 @@
         <v>42.22</v>
       </c>
       <c r="U2" s="12">
-        <f t="shared" ref="U2:U10" si="0">14/5</f>
+        <f t="shared" ref="U2:U10" si="1">14/5</f>
         <v>2.8</v>
       </c>
       <c r="V2" s="5"/>
@@ -1917,7 +1977,7 @@
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="25" t="b">
-        <f>NOT(O3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="32">
@@ -1946,7 +2006,7 @@
         <v>42.22</v>
       </c>
       <c r="U3" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="V3" s="5"/>
@@ -1975,7 +2035,7 @@
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="25" t="b">
-        <f>NOT(O4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="32">
@@ -2004,7 +2064,7 @@
         <v>42.22</v>
       </c>
       <c r="U4" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="V4" s="5"/>
@@ -2031,7 +2091,7 @@
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="25" t="b">
-        <f>NOT(O5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="32">
@@ -2060,7 +2120,7 @@
         <v>42.22</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="V5" s="5"/>
@@ -2089,7 +2149,7 @@
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="25" t="b">
-        <f>NOT(O6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6" s="32">
@@ -2118,7 +2178,7 @@
         <v>42.22</v>
       </c>
       <c r="U6" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="V6" s="5"/>
@@ -2145,7 +2205,7 @@
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="25" t="b">
-        <f>NOT(O7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7" s="32">
@@ -2174,7 +2234,7 @@
         <v>42.22</v>
       </c>
       <c r="U7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="V7" s="5"/>
@@ -2201,7 +2261,7 @@
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="25" t="b">
-        <f>NOT(O8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="32">
@@ -2230,7 +2290,7 @@
         <v>42.22</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="V8" s="5"/>
@@ -2259,7 +2319,7 @@
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="25" t="b">
-        <f>NOT(O9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="32">
@@ -2288,7 +2348,7 @@
         <v>42.22</v>
       </c>
       <c r="U9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="V9" s="5"/>
@@ -2317,7 +2377,7 @@
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="25" t="b">
-        <f>NOT(O10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="32">
@@ -2346,7 +2406,7 @@
         <v>42.22</v>
       </c>
       <c r="U10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="V10" s="5"/>
@@ -2377,7 +2437,7 @@
       <c r="I11" s="43"/>
       <c r="J11" s="42"/>
       <c r="K11" s="25" t="b">
-        <f>NOT(O11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L11" s="37"/>
@@ -2408,13 +2468,19 @@
         <v>24</v>
       </c>
       <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="43">
+        <v>2345</v>
+      </c>
+      <c r="G12" s="43">
+        <v>2205</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>23</v>
+      </c>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
       <c r="K12" s="25" t="b">
-        <f>NOT(O12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L12" s="25"/>
@@ -2445,13 +2511,19 @@
         <v>24</v>
       </c>
       <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="F13" s="43">
+        <v>1156</v>
+      </c>
+      <c r="G13" s="43">
+        <v>1015</v>
+      </c>
+      <c r="H13" s="82" t="s">
+        <v>23</v>
+      </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
       <c r="K13" s="25" t="b">
-        <f>NOT(O13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L13" s="25"/>
@@ -2482,13 +2554,19 @@
         <v>24</v>
       </c>
       <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="F14" s="43">
+        <v>1064</v>
+      </c>
+      <c r="G14" s="43">
+        <v>937</v>
+      </c>
+      <c r="H14" s="82" t="s">
+        <v>23</v>
+      </c>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
       <c r="K14" s="25" t="b">
-        <f>NOT(O14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L14" s="25"/>
@@ -2519,13 +2597,19 @@
         <v>24</v>
       </c>
       <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="43">
+        <v>2438</v>
+      </c>
+      <c r="G15" s="43">
+        <v>2186</v>
+      </c>
+      <c r="H15" s="82" t="s">
+        <v>23</v>
+      </c>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="25" t="b">
-        <f>NOT(O15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L15" s="25"/>
@@ -2556,13 +2640,19 @@
         <v>24</v>
       </c>
       <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="F16" s="82">
+        <v>2880</v>
+      </c>
+      <c r="G16" s="43">
+        <v>2754</v>
+      </c>
+      <c r="H16" s="82" t="s">
+        <v>23</v>
+      </c>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="25" t="b">
-        <f>NOT(O16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L16" s="25"/>
@@ -2633,13 +2723,19 @@
         <v>24</v>
       </c>
       <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="F18" s="82">
+        <v>2295</v>
+      </c>
+      <c r="G18" s="43">
+        <v>2210</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>23</v>
+      </c>
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="25" t="b">
-        <f>NOT(O18)</f>
+        <f t="shared" ref="K18:K38" si="2">NOT(O18)</f>
         <v>1</v>
       </c>
       <c r="L18" s="25"/>
@@ -2680,7 +2776,7 @@
         <v>25</v>
       </c>
       <c r="K19" s="25" t="b">
-        <f>NOT(O19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="32">
@@ -2731,7 +2827,7 @@
         <v>25</v>
       </c>
       <c r="K20" s="25" t="b">
-        <f>NOT(O20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="32">
@@ -2784,7 +2880,7 @@
         <v>30</v>
       </c>
       <c r="K21" s="25" t="b">
-        <f>NOT(O21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="32">
@@ -2837,7 +2933,7 @@
         <v>30</v>
       </c>
       <c r="K22" s="25" t="b">
-        <f>NOT(O22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="32">
@@ -2878,15 +2974,21 @@
         <v>24</v>
       </c>
       <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
+      <c r="F23" s="46">
+        <v>12952</v>
+      </c>
+      <c r="G23" s="46">
+        <v>11815</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="I23" s="46"/>
       <c r="J23" s="47" t="s">
         <v>25</v>
       </c>
       <c r="K23" s="25" t="b">
-        <f>NOT(O23)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L23" s="30"/>
@@ -2919,15 +3021,21 @@
         <v>24</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
+      <c r="F24" s="46">
+        <v>11341</v>
+      </c>
+      <c r="G24" s="46">
+        <v>9955</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="I24" s="46"/>
       <c r="J24" s="47" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="25" t="b">
-        <f>NOT(O24)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L24" s="30"/>
@@ -2960,17 +3068,23 @@
         <v>24</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
+        <v>274</v>
+      </c>
+      <c r="F25" s="46">
+        <v>15777</v>
+      </c>
+      <c r="G25" s="46">
+        <v>7288</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="I25" s="46"/>
       <c r="J25" s="47" t="s">
         <v>30</v>
       </c>
       <c r="K25" s="25" t="b">
-        <f>NOT(O25)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L25" s="30"/>
@@ -3005,15 +3119,21 @@
       <c r="E26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
+      <c r="F26" s="46">
+        <v>7223</v>
+      </c>
+      <c r="G26" s="46">
+        <v>6819</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="I26" s="46"/>
       <c r="J26" s="47" t="s">
         <v>30</v>
       </c>
       <c r="K26" s="25" t="b">
-        <f>NOT(O26)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L26" s="30"/>
@@ -3054,7 +3174,7 @@
       </c>
       <c r="J27" s="51"/>
       <c r="K27" s="25" t="b">
-        <f>NOT(O27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="32">
@@ -3109,7 +3229,7 @@
       </c>
       <c r="J28" s="51"/>
       <c r="K28" s="25" t="b">
-        <f>NOT(O28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="32">
@@ -3164,7 +3284,7 @@
       </c>
       <c r="J29" s="51"/>
       <c r="K29" s="25" t="b">
-        <f>NOT(O29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="32">
@@ -3211,13 +3331,19 @@
         <v>24</v>
       </c>
       <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="F30" s="53">
+        <v>9773</v>
+      </c>
+      <c r="G30" s="53">
+        <v>7356</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>23</v>
+      </c>
       <c r="I30" s="53"/>
       <c r="J30" s="54"/>
       <c r="K30" s="25" t="b">
-        <f>NOT(O30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L30" s="30"/>
@@ -3266,7 +3392,7 @@
       </c>
       <c r="J31" s="57"/>
       <c r="K31" s="25" t="b">
-        <f>NOT(O31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" s="32">
@@ -3315,7 +3441,7 @@
       </c>
       <c r="J32" s="57"/>
       <c r="K32" s="25" t="b">
-        <f>NOT(O32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="32">
@@ -3364,7 +3490,7 @@
       </c>
       <c r="J33" s="57"/>
       <c r="K33" s="25" t="b">
-        <f>NOT(O33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="32">
@@ -3411,7 +3537,7 @@
       </c>
       <c r="J34" s="57"/>
       <c r="K34" s="25" t="b">
-        <f>NOT(O34)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34" s="32">
@@ -3458,7 +3584,7 @@
       </c>
       <c r="J35" s="57"/>
       <c r="K35" s="25" t="b">
-        <f>NOT(O35)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L35" s="32">
@@ -3507,7 +3633,7 @@
       </c>
       <c r="J36" s="57"/>
       <c r="K36" s="25" t="b">
-        <f>NOT(O36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="32">
@@ -3556,7 +3682,7 @@
       </c>
       <c r="J37" s="57"/>
       <c r="K37" s="25" t="b">
-        <f>NOT(O37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L37" s="32">
@@ -3605,7 +3731,7 @@
       </c>
       <c r="J38" s="57"/>
       <c r="K38" s="25" t="b">
-        <f>NOT(O38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L38" s="32">
@@ -4400,13 +4526,19 @@
         <v>24</v>
       </c>
       <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
+      <c r="F57" s="59">
+        <v>2582</v>
+      </c>
+      <c r="G57" s="59">
+        <v>2426</v>
+      </c>
+      <c r="H57" s="59" t="s">
+        <v>23</v>
+      </c>
       <c r="I57" s="59"/>
       <c r="J57" s="60"/>
       <c r="K57" s="25" t="b">
-        <f>NOT(O57)</f>
+        <f t="shared" ref="K57:K69" si="3">NOT(O57)</f>
         <v>1</v>
       </c>
       <c r="L57" s="30"/>
@@ -4443,13 +4575,19 @@
         <v>24</v>
       </c>
       <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
+      <c r="F58" s="59">
+        <v>1033</v>
+      </c>
+      <c r="G58" s="59">
+        <v>859</v>
+      </c>
+      <c r="H58" s="59" t="s">
+        <v>23</v>
+      </c>
       <c r="I58" s="59"/>
       <c r="J58" s="60"/>
       <c r="K58" s="25" t="b">
-        <f>NOT(O58)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L58" s="30"/>
@@ -4496,7 +4634,7 @@
       <c r="I59" s="80"/>
       <c r="J59" s="81"/>
       <c r="K59" s="25" t="b">
-        <f>NOT(O59)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L59" s="30"/>
@@ -4533,13 +4671,19 @@
         <v>24</v>
       </c>
       <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
+      <c r="F60" s="59">
+        <v>1531</v>
+      </c>
+      <c r="G60" s="59">
+        <v>1362</v>
+      </c>
+      <c r="H60" s="59" t="s">
+        <v>23</v>
+      </c>
       <c r="I60" s="59"/>
       <c r="J60" s="60"/>
       <c r="K60" s="25" t="b">
-        <f>NOT(O60)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L60" s="30"/>
@@ -4586,7 +4730,7 @@
       <c r="I61" s="80"/>
       <c r="J61" s="81"/>
       <c r="K61" s="25" t="b">
-        <f>NOT(O61)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L61" s="30"/>
@@ -4623,13 +4767,19 @@
         <v>24</v>
       </c>
       <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
+      <c r="F62" s="59">
+        <v>1171</v>
+      </c>
+      <c r="G62" s="59">
+        <v>576</v>
+      </c>
+      <c r="H62" s="59" t="s">
+        <v>23</v>
+      </c>
       <c r="I62" s="59"/>
       <c r="J62" s="60"/>
       <c r="K62" s="25" t="b">
-        <f>NOT(O62)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L62" s="30"/>
@@ -4666,13 +4816,19 @@
         <v>24</v>
       </c>
       <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
+      <c r="F63" s="59">
+        <v>839</v>
+      </c>
+      <c r="G63" s="59">
+        <v>561</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>23</v>
+      </c>
       <c r="I63" s="59"/>
       <c r="J63" s="60"/>
       <c r="K63" s="25" t="b">
-        <f>NOT(O63)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L63" s="30"/>
@@ -4709,13 +4865,19 @@
         <v>24</v>
       </c>
       <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
+      <c r="F64" s="59">
+        <v>3871</v>
+      </c>
+      <c r="G64" s="59">
+        <v>2734</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>23</v>
+      </c>
       <c r="I64" s="59"/>
       <c r="J64" s="60"/>
       <c r="K64" s="25" t="b">
-        <f>NOT(O64)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L64" s="30"/>
@@ -4752,13 +4914,19 @@
         <v>24</v>
       </c>
       <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
+      <c r="F65" s="59">
+        <v>2615</v>
+      </c>
+      <c r="G65" s="59">
+        <v>2263</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>23</v>
+      </c>
       <c r="I65" s="59"/>
       <c r="J65" s="60"/>
       <c r="K65" s="25" t="b">
-        <f>NOT(O65)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L65" s="30"/>
@@ -4795,13 +4963,19 @@
         <v>24</v>
       </c>
       <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
+      <c r="F66" s="59">
+        <v>2490</v>
+      </c>
+      <c r="G66" s="59">
+        <v>1485</v>
+      </c>
+      <c r="H66" s="59" t="s">
+        <v>23</v>
+      </c>
       <c r="I66" s="59"/>
       <c r="J66" s="60"/>
       <c r="K66" s="25" t="b">
-        <f>NOT(O66)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L66" s="30"/>
@@ -4846,7 +5020,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="26"/>
       <c r="K67" s="25" t="b">
-        <f>NOT(O67)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L67" s="30"/>
@@ -4887,7 +5061,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="26"/>
       <c r="K68" s="25" t="b">
-        <f>NOT(O68)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L68" s="30"/>
@@ -4928,7 +5102,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="26"/>
       <c r="K69" s="25" t="b">
-        <f>NOT(O69)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L69" s="30"/>
@@ -5011,7 +5185,7 @@
         <v>30</v>
       </c>
       <c r="K71" s="25" t="b">
-        <f>NOT(O71)</f>
+        <f t="shared" ref="K71:K114" si="4">NOT(O71)</f>
         <v>0</v>
       </c>
       <c r="L71" s="32">
@@ -5066,7 +5240,7 @@
         <v>30</v>
       </c>
       <c r="K72" s="25" t="b">
-        <f>NOT(O72)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L72" s="32">
@@ -5121,7 +5295,7 @@
         <v>30</v>
       </c>
       <c r="K73" s="25" t="b">
-        <f>NOT(O73)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L73" s="32">
@@ -5166,15 +5340,19 @@
         <v>24</v>
       </c>
       <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
+      <c r="F74" s="62">
+        <v>3930</v>
+      </c>
+      <c r="G74" s="62">
+        <v>2623</v>
+      </c>
       <c r="H74" s="62"/>
       <c r="I74" s="62"/>
       <c r="J74" s="63" t="s">
         <v>30</v>
       </c>
       <c r="K74" s="25" t="b">
-        <f>NOT(O74)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L74" s="30"/>
@@ -5207,15 +5385,19 @@
         <v>24</v>
       </c>
       <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
+      <c r="F75" s="62">
+        <v>5474</v>
+      </c>
+      <c r="G75" s="62">
+        <v>5163</v>
+      </c>
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
       <c r="J75" s="63" t="s">
         <v>30</v>
       </c>
       <c r="K75" s="25" t="b">
-        <f>NOT(O75)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L75" s="30"/>
@@ -5248,15 +5430,19 @@
         <v>24</v>
       </c>
       <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
+      <c r="F76" s="62">
+        <v>5972</v>
+      </c>
+      <c r="G76" s="62">
+        <v>5692</v>
+      </c>
       <c r="H76" s="62"/>
       <c r="I76" s="62"/>
       <c r="J76" s="63" t="s">
         <v>30</v>
       </c>
       <c r="K76" s="25" t="b">
-        <f>NOT(O76)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L76" s="30"/>
@@ -5289,15 +5475,19 @@
         <v>24</v>
       </c>
       <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
+      <c r="F77" s="62">
+        <v>1806</v>
+      </c>
+      <c r="G77" s="62">
+        <v>1749</v>
+      </c>
       <c r="H77" s="62"/>
       <c r="I77" s="62"/>
       <c r="J77" s="63" t="s">
         <v>30</v>
       </c>
       <c r="K77" s="25" t="b">
-        <f>NOT(O77)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L77" s="30"/>
@@ -5330,15 +5520,19 @@
         <v>24</v>
       </c>
       <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
+      <c r="F78" s="62">
+        <v>4909</v>
+      </c>
+      <c r="G78" s="62">
+        <v>3984</v>
+      </c>
       <c r="H78" s="62"/>
       <c r="I78" s="62"/>
       <c r="J78" s="63" t="s">
         <v>30</v>
       </c>
       <c r="K78" s="25" t="b">
-        <f>NOT(O78)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L78" s="30"/>
@@ -5371,15 +5565,19 @@
         <v>24</v>
       </c>
       <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
+      <c r="F79" s="62">
+        <v>6180</v>
+      </c>
+      <c r="G79" s="62">
+        <v>5907</v>
+      </c>
       <c r="H79" s="62"/>
       <c r="I79" s="62"/>
       <c r="J79" s="63" t="s">
         <v>30</v>
       </c>
       <c r="K79" s="25" t="b">
-        <f>NOT(O79)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L79" s="30"/>
@@ -5422,7 +5620,7 @@
         <v>95</v>
       </c>
       <c r="K80" s="25" t="b">
-        <f>NOT(O80)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L80" s="32">
@@ -5471,7 +5669,7 @@
         <v>98</v>
       </c>
       <c r="K81" s="25" t="b">
-        <f>NOT(O81)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L81" s="32">
@@ -5526,7 +5724,7 @@
         <v>100</v>
       </c>
       <c r="K82" s="25" t="b">
-        <f>NOT(O82)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L82" s="32">
@@ -5581,7 +5779,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="25" t="b">
-        <f>NOT(O83)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L83" s="32">
@@ -5636,7 +5834,7 @@
         <v>98</v>
       </c>
       <c r="K84" s="25" t="b">
-        <f>NOT(O84)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L84" s="32">
@@ -5691,7 +5889,7 @@
         <v>98</v>
       </c>
       <c r="K85" s="25" t="b">
-        <f>NOT(O85)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L85" s="32">
@@ -5746,7 +5944,7 @@
         <v>100</v>
       </c>
       <c r="K86" s="25" t="b">
-        <f>NOT(O86)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L86" s="32">
@@ -5801,7 +5999,7 @@
         <v>95</v>
       </c>
       <c r="K87" s="25" t="b">
-        <f>NOT(O87)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L87" s="32">
@@ -5833,28 +6031,30 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="C88" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="71" t="s">
+      <c r="C88" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84">
+        <v>457</v>
+      </c>
+      <c r="G88" s="84"/>
+      <c r="H88" s="84"/>
+      <c r="I88" s="84"/>
       <c r="J88" s="72" t="s">
         <v>95</v>
       </c>
       <c r="K88" s="25" t="b">
-        <f>NOT(O88)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L88" s="30"/>
@@ -5887,15 +6087,21 @@
         <v>24</v>
       </c>
       <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
+      <c r="F89" s="71">
+        <v>3518</v>
+      </c>
+      <c r="G89" s="71">
+        <v>3438</v>
+      </c>
+      <c r="H89" s="71" t="s">
+        <v>23</v>
+      </c>
       <c r="I89" s="71"/>
       <c r="J89" s="72" t="s">
         <v>95</v>
       </c>
       <c r="K89" s="25" t="b">
-        <f>NOT(O89)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L89" s="30"/>
@@ -5928,15 +6134,21 @@
         <v>24</v>
       </c>
       <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
+      <c r="F90" s="71">
+        <v>2309</v>
+      </c>
+      <c r="G90" s="71">
+        <v>2225</v>
+      </c>
+      <c r="H90" s="71" t="s">
+        <v>23</v>
+      </c>
       <c r="I90" s="71"/>
       <c r="J90" s="72" t="s">
         <v>100</v>
       </c>
       <c r="K90" s="25" t="b">
-        <f>NOT(O90)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L90" s="30"/>
@@ -5969,15 +6181,21 @@
         <v>24</v>
       </c>
       <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
+      <c r="F91" s="71">
+        <v>8907</v>
+      </c>
+      <c r="G91" s="71">
+        <v>8717</v>
+      </c>
+      <c r="H91" s="71" t="s">
+        <v>23</v>
+      </c>
       <c r="I91" s="71"/>
       <c r="J91" s="72" t="s">
         <v>98</v>
       </c>
       <c r="K91" s="25" t="b">
-        <f>NOT(O91)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L91" s="30"/>
@@ -6010,15 +6228,21 @@
         <v>24</v>
       </c>
       <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
+      <c r="F92" s="71">
+        <v>8516</v>
+      </c>
+      <c r="G92" s="71">
+        <v>8359</v>
+      </c>
+      <c r="H92" s="71" t="s">
+        <v>23</v>
+      </c>
       <c r="I92" s="71"/>
       <c r="J92" s="72" t="s">
         <v>95</v>
       </c>
       <c r="K92" s="25" t="b">
-        <f>NOT(O92)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L92" s="30"/>
@@ -6051,15 +6275,21 @@
         <v>24</v>
       </c>
       <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
+      <c r="F93" s="71">
+        <v>11346</v>
+      </c>
+      <c r="G93" s="71">
+        <v>11156</v>
+      </c>
+      <c r="H93" s="71" t="s">
+        <v>23</v>
+      </c>
       <c r="I93" s="71"/>
       <c r="J93" s="72" t="s">
         <v>95</v>
       </c>
       <c r="K93" s="25" t="b">
-        <f>NOT(O93)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L93" s="30"/>
@@ -6102,7 +6332,7 @@
         <v>113</v>
       </c>
       <c r="K94" s="25" t="b">
-        <f>NOT(O94)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L94" s="31">
@@ -6157,7 +6387,7 @@
         <v>113</v>
       </c>
       <c r="K95" s="25" t="b">
-        <f>NOT(O95)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L95" s="31">
@@ -6212,7 +6442,7 @@
         <v>113</v>
       </c>
       <c r="K96" s="25" t="b">
-        <f>NOT(O96)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L96" s="31">
@@ -6267,7 +6497,7 @@
         <v>113</v>
       </c>
       <c r="K97" s="25" t="b">
-        <f>NOT(O97)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L97" s="31">
@@ -6322,7 +6552,7 @@
         <v>113</v>
       </c>
       <c r="K98" s="25" t="b">
-        <f>NOT(O98)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L98" s="31">
@@ -6377,7 +6607,7 @@
         <v>113</v>
       </c>
       <c r="K99" s="25" t="b">
-        <f>NOT(O99)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L99" s="31">
@@ -6432,7 +6662,7 @@
         <v>113</v>
       </c>
       <c r="K100" s="25" t="b">
-        <f>NOT(O100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L100" s="31">
@@ -6487,7 +6717,7 @@
         <v>113</v>
       </c>
       <c r="K101" s="25" t="b">
-        <f>NOT(O101)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L101" s="32">
@@ -6542,7 +6772,7 @@
         <v>113</v>
       </c>
       <c r="K102" s="25" t="b">
-        <f>NOT(O102)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L102" s="32">
@@ -6597,7 +6827,7 @@
         <v>113</v>
       </c>
       <c r="K103" s="25" t="b">
-        <f>NOT(O103)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L103" s="32">
@@ -6642,15 +6872,21 @@
         <v>24</v>
       </c>
       <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
+      <c r="F104" s="74">
+        <v>4022</v>
+      </c>
+      <c r="G104" s="74">
+        <v>3701</v>
+      </c>
+      <c r="H104" s="74" t="s">
+        <v>23</v>
+      </c>
       <c r="I104" s="74"/>
       <c r="J104" s="75" t="s">
         <v>113</v>
       </c>
       <c r="K104" s="25" t="b">
-        <f>NOT(O104)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L104" s="30"/>
@@ -6670,20 +6906,22 @@
       <c r="V104" s="5"/>
     </row>
     <row r="105" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="73" t="s">
+      <c r="A105" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="74" t="s">
+      <c r="B105" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="C105" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="D105" s="74" t="s">
+      <c r="C105" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86">
+        <v>483</v>
+      </c>
       <c r="G105" s="74"/>
       <c r="H105" s="74"/>
       <c r="I105" s="74"/>
@@ -6691,7 +6929,7 @@
         <v>113</v>
       </c>
       <c r="K105" s="25" t="b">
-        <f>NOT(O105)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L105" s="30"/>
@@ -6724,15 +6962,21 @@
         <v>24</v>
       </c>
       <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
+      <c r="F106" s="74">
+        <v>5604</v>
+      </c>
+      <c r="G106" s="74">
+        <v>5147</v>
+      </c>
+      <c r="H106" s="74" t="s">
+        <v>23</v>
+      </c>
       <c r="I106" s="74"/>
       <c r="J106" s="75" t="s">
         <v>113</v>
       </c>
       <c r="K106" s="25" t="b">
-        <f>NOT(O106)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L106" s="30"/>
@@ -6765,15 +7009,21 @@
         <v>24</v>
       </c>
       <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
+      <c r="F107" s="74">
+        <v>4669</v>
+      </c>
+      <c r="G107" s="74">
+        <v>4460</v>
+      </c>
+      <c r="H107" s="74" t="s">
+        <v>23</v>
+      </c>
       <c r="I107" s="74"/>
       <c r="J107" s="75" t="s">
         <v>113</v>
       </c>
       <c r="K107" s="25" t="b">
-        <f>NOT(O107)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L107" s="30"/>
@@ -6806,15 +7056,21 @@
         <v>24</v>
       </c>
       <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
+      <c r="F108" s="74">
+        <v>4970</v>
+      </c>
+      <c r="G108" s="74">
+        <v>4732</v>
+      </c>
+      <c r="H108" s="74" t="s">
+        <v>23</v>
+      </c>
       <c r="I108" s="74"/>
       <c r="J108" s="75" t="s">
         <v>113</v>
       </c>
       <c r="K108" s="25" t="b">
-        <f>NOT(O108)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L108" s="30"/>
@@ -6847,15 +7103,21 @@
         <v>24</v>
       </c>
       <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
+      <c r="F109" s="74">
+        <v>9326</v>
+      </c>
+      <c r="G109" s="74">
+        <v>8774</v>
+      </c>
+      <c r="H109" s="74" t="s">
+        <v>23</v>
+      </c>
       <c r="I109" s="74"/>
       <c r="J109" s="75" t="s">
         <v>113</v>
       </c>
       <c r="K109" s="25" t="b">
-        <f>NOT(O109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L109" s="30"/>
@@ -6875,20 +7137,22 @@
       <c r="V109" s="5"/>
     </row>
     <row r="110" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="73" t="s">
+      <c r="A110" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="74" t="s">
+      <c r="B110" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="C110" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="74" t="s">
+      <c r="C110" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
+      <c r="E110" s="86"/>
+      <c r="F110" s="86">
+        <v>417</v>
+      </c>
       <c r="G110" s="74"/>
       <c r="H110" s="74"/>
       <c r="I110" s="74"/>
@@ -6896,7 +7160,7 @@
         <v>113</v>
       </c>
       <c r="K110" s="25" t="b">
-        <f>NOT(O110)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L110" s="30"/>
@@ -6929,15 +7193,21 @@
         <v>24</v>
       </c>
       <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
+      <c r="F111" s="74">
+        <v>3897</v>
+      </c>
+      <c r="G111" s="74">
+        <v>3812</v>
+      </c>
+      <c r="H111" s="74" t="s">
+        <v>23</v>
+      </c>
       <c r="I111" s="74"/>
       <c r="J111" s="75" t="s">
         <v>113</v>
       </c>
       <c r="K111" s="25" t="b">
-        <f>NOT(O111)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L111" s="30"/>
@@ -6970,15 +7240,21 @@
         <v>24</v>
       </c>
       <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
+      <c r="F112" s="74">
+        <v>6490</v>
+      </c>
+      <c r="G112" s="74">
+        <v>6349</v>
+      </c>
+      <c r="H112" s="74" t="s">
+        <v>23</v>
+      </c>
       <c r="I112" s="74"/>
       <c r="J112" s="75" t="s">
         <v>113</v>
       </c>
       <c r="K112" s="25" t="b">
-        <f>NOT(O112)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L112" s="30"/>
@@ -7011,15 +7287,21 @@
         <v>24</v>
       </c>
       <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
+      <c r="F113" s="74">
+        <v>10847</v>
+      </c>
+      <c r="G113" s="74">
+        <v>10697</v>
+      </c>
+      <c r="H113" s="74" t="s">
+        <v>23</v>
+      </c>
       <c r="I113" s="74"/>
       <c r="J113" s="75" t="s">
         <v>113</v>
       </c>
       <c r="K113" s="25" t="b">
-        <f>NOT(O113)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L113" s="30"/>
@@ -7058,7 +7340,7 @@
       <c r="I114" s="34"/>
       <c r="J114" s="35"/>
       <c r="K114" s="25" t="b">
-        <f>NOT(O114)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L114" s="32">
@@ -7979,6 +8261,7 @@
     <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <autoFilter ref="A1:V114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V1008">
     <sortCondition ref="A1:A1008"/>
   </sortState>
@@ -8179,7 +8462,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A9:A16">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/sample_list_healthy.xlsx
+++ b/sample_list_healthy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FF1765-8384-4C51-8DBD-CE43D8667FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9578508-B24A-4D6A-908D-19A525181CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45345" yWindow="2145" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samples!$A$1:$V$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,16 +45,16 @@
   <authors>
     <author>tc={E13DE188-AD34-4B44-BCD4-5388310AA511}</author>
     <author>tc={6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}</author>
+    <author>tc={E1F80EC1-29ED-483D-B8E3-F6B366775769}</author>
     <author>tc={BCA65DF6-D1CD-426F-B8C4-C82470F01E27}</author>
     <author>randymi</author>
-    <author>tc={E1F80EC1-29ED-483D-B8E3-F6B366775769}</author>
     <author>tc={FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}</author>
     <author>tc={82852501-5DF6-414C-BB2B-595CD46B4355}</author>
     <author>tc={1206FBFC-F71C-490B-BF76-B191A0D47CB3}</author>
     <author>tc={F0542428-BE7F-4F36-B352-D9BD3B30C45A}</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{E13DE188-AD34-4B44-BCD4-5388310AA511}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E13DE188-AD34-4B44-BCD4-5388310AA511}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +63,7 @@
 Human skin samples for single-cell analyses. Five patients with chronic HS and 8 healthy controls were recruited for single-cell analysis at the University of Michigan. HS patients had a disease duration of at least 1 year prior to sampling and Hurley stage II or III disease. Patients did not use biologics or i.v. treatment and were off any other systemic treatment and off any topical agents for at least 2 weeks prior to inclusion. Six-millimeter punch biopsies were taken from lesional skin in the case of HS patients and healthy control skin from the hip/buttock for healthy controls.</t>
       </text>
     </comment>
-    <comment ref="T8" authorId="1" shapeId="0" xr:uid="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
+    <comment ref="T2" authorId="1" shapeId="0" xr:uid="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +71,16 @@
     These are means</t>
       </text>
     </comment>
-    <comment ref="A11" authorId="2" shapeId="0" xr:uid="{BCA65DF6-D1CD-426F-B8C4-C82470F01E27}">
+    <comment ref="A11" authorId="2" shapeId="0" xr:uid="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Moderate to severe
+Eligible participants were: 1) Age ≥18 years, 2) moderate-to-severe HS as defined by HS PGA score ≥3, 2) active disease involving ≥1 body site, 3) 3 t1/2 washout period from all systemic immunomodulating agents for management of HS at the pre-anti-TNFα time point </t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="3" shapeId="0" xr:uid="{BCA65DF6-D1CD-426F-B8C4-C82470F01E27}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +88,7 @@
     HC used by GSE154775</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="3" shapeId="0" xr:uid="{23288143-4254-40CC-A93F-F6EE31743036}">
+    <comment ref="A21" authorId="4" shapeId="0" xr:uid="{23288143-4254-40CC-A93F-F6EE31743036}">
       <text>
         <r>
           <rPr>
@@ -103,16 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="4" shapeId="0" xr:uid="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Moderate to severe
-Eligible participants were: 1) Age ≥18 years, 2) moderate-to-severe HS as defined by HS PGA score ≥3, 2) active disease involving ≥1 body site, 3) 3 t1/2 washout period from all systemic immunomodulating agents for management of HS at the pre-anti-TNFα time point </t>
-      </text>
-    </comment>
-    <comment ref="A29" authorId="5" shapeId="0" xr:uid="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
+    <comment ref="A23" authorId="5" shapeId="0" xr:uid="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +128,7 @@
 otherwise discarded tissue.</t>
       </text>
     </comment>
-    <comment ref="A36" authorId="6" shapeId="0" xr:uid="{82852501-5DF6-414C-BB2B-595CD46B4355}">
+    <comment ref="A27" authorId="6" shapeId="0" xr:uid="{82852501-5DF6-414C-BB2B-595CD46B4355}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,7 +136,7 @@
     Discarded and de-identified HS skin specimens were collected during HS dermal tunnel de-roofing surgical procedures. To label epidermal KCs and dermal tunnel KCs separately, the epidermis and dermis of collected skin samples were separated after incubation in 0.2% Dispase II (Sigma-Aldrich) for 3 hours (Supplemental Figure 1). Then, the epidermis and dermis were separately incubated in RPMI-1640 medium with L-glutamine (Cytiva) supplemented with 10% human albumin serum (Sigma-Aldrich) in a humidified incubator at 37°C and 5% CO2. Cells that had emigrated out of the epidermis and dermis were separately harvested after 48 hours. </t>
       </text>
     </comment>
-    <comment ref="A59" authorId="3" shapeId="0" xr:uid="{2213BFC3-344F-4D91-9827-88AD43C7601C}">
+    <comment ref="A55" authorId="4" shapeId="0" xr:uid="{2213BFC3-344F-4D91-9827-88AD43C7601C}">
       <text>
         <r>
           <rPr>
@@ -160,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="3" shapeId="0" xr:uid="{841C3BC5-1DAE-47F1-A817-8E92D933D016}">
+    <comment ref="A57" authorId="4" shapeId="0" xr:uid="{841C3BC5-1DAE-47F1-A817-8E92D933D016}">
       <text>
         <r>
           <rPr>
@@ -185,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A67" authorId="7" shapeId="0" xr:uid="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
+    <comment ref="A63" authorId="7" shapeId="0" xr:uid="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -193,7 +194,7 @@
     The Institutional Review Board of the University of Alabama at Birmingham approved the protocol (IRB-300005214) for obtaining surgically discarded skin tissues from heathy and HS (Hurley II/III stage) subjects. Surgical excisions from 7 patients with HS (axillary and groin lesions) and 5 healthy controls (discarded tissue from breast or abdominoplasty reduction surgery) were collected. </t>
       </text>
     </comment>
-    <comment ref="A72" authorId="8" shapeId="0" xr:uid="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
+    <comment ref="A71" authorId="8" shapeId="0" xr:uid="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -202,7 +203,7 @@
 Same as GSE249622 and 249793 but with different cell filtering. Shares supplement with GSE 249622</t>
       </text>
     </comment>
-    <comment ref="F109" authorId="3" shapeId="0" xr:uid="{235335E3-4B6D-4D5E-8985-A1F053CA83C3}">
+    <comment ref="F109" authorId="4" shapeId="0" xr:uid="{235335E3-4B6D-4D5E-8985-A1F053CA83C3}">
       <text>
         <r>
           <rPr>
@@ -210,7 +211,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>randymi:</t>
         </r>
@@ -219,7 +220,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 good doublets
@@ -232,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="277">
   <si>
     <t>GSE</t>
   </si>
@@ -1008,9 +1009,6 @@
     <t>GSM Post QC Cell Count</t>
   </si>
   <si>
-    <t>Haniffa HS_07</t>
-  </si>
-  <si>
     <t>GSE173706</t>
   </si>
   <si>
@@ -1057,6 +1055,15 @@
   </si>
   <si>
     <t>sc</t>
+  </si>
+  <si>
+    <t>haniffa_hs7</t>
+  </si>
+  <si>
+    <t>Redo</t>
+  </si>
+  <si>
+    <t>Redo Cell Count</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1073,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,19 +1170,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1754,21 +1748,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A8" dT="2024-08-07T15:35:19.37" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{E13DE188-AD34-4B44-BCD4-5388310AA511}">
+  <threadedComment ref="A2" dT="2024-08-07T15:35:19.37" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{E13DE188-AD34-4B44-BCD4-5388310AA511}">
     <text>Moderate to severe
 Human skin samples for single-cell analyses. Five patients with chronic HS and 8 healthy controls were recruited for single-cell analysis at the University of Michigan. HS patients had a disease duration of at least 1 year prior to sampling and Hurley stage II or III disease. Patients did not use biologics or i.v. treatment and were off any other systemic treatment and off any topical agents for at least 2 weeks prior to inclusion. Six-millimeter punch biopsies were taken from lesional skin in the case of HS patients and healthy control skin from the hip/buttock for healthy controls.</text>
   </threadedComment>
-  <threadedComment ref="T8" dT="2024-08-07T15:29:04.81" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
+  <threadedComment ref="T2" dT="2024-08-07T15:29:04.81" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
     <text>These are means</text>
   </threadedComment>
-  <threadedComment ref="A11" dT="2024-09-04T21:23:05.32" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{BCA65DF6-D1CD-426F-B8C4-C82470F01E27}">
-    <text>HC used by GSE154775</text>
-  </threadedComment>
-  <threadedComment ref="A23" dT="2024-08-07T15:34:01.77" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
+  <threadedComment ref="A11" dT="2024-08-07T15:34:01.77" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
     <text xml:space="preserve">Moderate to severe
 Eligible participants were: 1) Age ≥18 years, 2) moderate-to-severe HS as defined by HS PGA score ≥3, 2) active disease involving ≥1 body site, 3) 3 t1/2 washout period from all systemic immunomodulating agents for management of HS at the pre-anti-TNFα time point </text>
   </threadedComment>
-  <threadedComment ref="A29" dT="2024-08-07T15:53:42.10" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
+  <threadedComment ref="A15" dT="2024-09-04T21:23:05.32" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{BCA65DF6-D1CD-426F-B8C4-C82470F01E27}">
+    <text>HC used by GSE154775</text>
+  </threadedComment>
+  <threadedComment ref="A23" dT="2024-08-07T15:53:42.10" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
     <text>HS patients undergoing surgical excision for Hurley stage 3
 therapy were consented to provide skin tissue for scRNAseq
 analysis (Supplementary Table 1). Surgical excisions from
@@ -1778,7 +1772,7 @@
 and Pro00079799 as well as exempt due to the nature of
 otherwise discarded tissue.</text>
   </threadedComment>
-  <threadedComment ref="A36" dT="2024-08-07T15:59:19.46" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{82852501-5DF6-414C-BB2B-595CD46B4355}">
+  <threadedComment ref="A27" dT="2024-08-07T15:59:19.46" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{82852501-5DF6-414C-BB2B-595CD46B4355}">
     <text xml:space="preserve">Discarded and de-identified HS skin specimens were collected during HS dermal tunnel de-roofing surgical procedures. To label epidermal KCs and dermal tunnel KCs separately, the epidermis and dermis of collected skin samples were separated after incubation in 0.2% Dispase II (Sigma-Aldrich) for 3 hours (Supplemental Figure 1). Then, the epidermis and dermis were separately incubated in RPMI-1640 medium with L-glutamine (Cytiva) supplemented with 10% human albumin serum (Sigma-Aldrich) in a humidified incubator at 37°C and 5% CO2. Cells that had emigrated out of the epidermis and dermis were separately harvested after 48 hours. </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -1787,10 +1781,10 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="A67" dT="2024-08-07T16:14:59.04" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
+  <threadedComment ref="A63" dT="2024-08-07T16:14:59.04" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
     <text xml:space="preserve">The Institutional Review Board of the University of Alabama at Birmingham approved the protocol (IRB-300005214) for obtaining surgically discarded skin tissues from heathy and HS (Hurley II/III stage) subjects. Surgical excisions from 7 patients with HS (axillary and groin lesions) and 5 healthy controls (discarded tissue from breast or abdominoplasty reduction surgery) were collected. </text>
   </threadedComment>
-  <threadedComment ref="A72" dT="2024-08-07T16:31:35.66" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
+  <threadedComment ref="A71" dT="2024-08-07T16:31:35.66" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
     <text>Skin processing. We obtained 6 mm punch biopsies from 5 patients with a diagnosis of HS from an actively inflamed lesion. Healthy control skin was obtained from surgical discards and was dermatomed at 500 μm prior to processing
 Same as GSE249622 and 249793 but with different cell filtering. Shares supplement with GSE 249622</text>
   </threadedComment>
@@ -1802,8 +1796,8 @@
   <dimension ref="A1:V1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1844,22 +1838,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>255</v>
@@ -1900,7 +1894,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>9</v>
@@ -1908,34 +1902,34 @@
       <c r="D2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39" t="s">
+        <v>275</v>
+      </c>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="25" t="b">
-        <f t="shared" ref="K2:K16" si="0">NOT(O2)</f>
+        <f t="shared" ref="K2:K20" si="0">NOT(O2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="32">
-        <v>0.12908878504672799</v>
+        <v>1.1085285177900899E-2</v>
       </c>
       <c r="M2" s="25">
-        <v>1712</v>
+        <v>5593</v>
       </c>
       <c r="N2" s="25">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="O2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="9">
         <v>2</v>
@@ -1958,7 +1952,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>9</v>
@@ -1966,14 +1960,14 @@
       <c r="D3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39" t="s">
+        <v>275</v>
+      </c>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="25" t="b">
@@ -1981,19 +1975,19 @@
         <v>0</v>
       </c>
       <c r="L3" s="32">
-        <v>6.3876651982378796E-2</v>
+        <v>3.6499377851513803E-2</v>
       </c>
       <c r="M3" s="25">
-        <v>908</v>
+        <v>4822</v>
       </c>
       <c r="N3" s="25">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="O3" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="9">
         <v>2</v>
@@ -2016,7 +2010,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>9</v>
@@ -2025,13 +2019,17 @@
         <v>10</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="39">
+        <v>1614</v>
+      </c>
+      <c r="G4" s="39">
+        <v>1443</v>
+      </c>
       <c r="H4" s="39"/>
       <c r="I4" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="25" t="b">
@@ -2039,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="L4" s="32">
-        <v>3.8231780167264001E-2</v>
+        <v>8.3217753120665705E-3</v>
       </c>
       <c r="M4" s="25">
-        <v>837</v>
+        <v>1442</v>
       </c>
       <c r="N4" s="25">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="O4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="9">
         <v>2</v>
@@ -2074,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>9</v>
@@ -2082,12 +2080,18 @@
       <c r="D5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="39">
+        <v>946</v>
+      </c>
+      <c r="G5" s="39">
+        <v>912</v>
+      </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="25" t="b">
@@ -2095,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="L5" s="32">
-        <v>3.6499377851513803E-2</v>
+        <v>6.3876651982378796E-2</v>
       </c>
       <c r="M5" s="25">
-        <v>4822</v>
+        <v>908</v>
       </c>
       <c r="N5" s="25">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="O5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="9">
         <v>2</v>
@@ -2141,11 +2145,15 @@
       <c r="E6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="F6" s="39">
+        <v>2317</v>
+      </c>
+      <c r="G6" s="39">
+        <v>809</v>
+      </c>
       <c r="H6" s="39"/>
       <c r="I6" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="25" t="b">
@@ -2188,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>9</v>
@@ -2196,12 +2204,18 @@
       <c r="D7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="E7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="39">
+        <v>1104</v>
+      </c>
+      <c r="G7" s="39">
+        <v>838</v>
+      </c>
       <c r="H7" s="39"/>
       <c r="I7" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="25" t="b">
@@ -2209,19 +2223,19 @@
         <v>0</v>
       </c>
       <c r="L7" s="32">
-        <v>1.13082472216806E-2</v>
+        <v>3.8231780167264001E-2</v>
       </c>
       <c r="M7" s="25">
-        <v>5129</v>
+        <v>837</v>
       </c>
       <c r="N7" s="25">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>146</v>
+      <c r="P7" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="Q7" s="9">
         <v>2</v>
@@ -2244,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>9</v>
@@ -2252,12 +2266,18 @@
       <c r="D8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="E8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="39">
+        <v>2824</v>
+      </c>
+      <c r="G8" s="39">
+        <v>1971</v>
+      </c>
       <c r="H8" s="39"/>
       <c r="I8" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="25" t="b">
@@ -2265,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="L8" s="32">
-        <v>1.1085285177900899E-2</v>
+        <v>5.5979643765903296E-3</v>
       </c>
       <c r="M8" s="25">
-        <v>5593</v>
+        <v>1965</v>
       </c>
       <c r="N8" s="25">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="O8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="9">
         <v>2</v>
@@ -2300,7 +2320,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>9</v>
@@ -2309,13 +2329,17 @@
         <v>10</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="39">
+        <v>2108</v>
+      </c>
+      <c r="G9" s="39">
+        <v>1718</v>
+      </c>
       <c r="H9" s="39"/>
       <c r="I9" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="25" t="b">
@@ -2323,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="L9" s="32">
-        <v>8.3217753120665705E-3</v>
+        <v>0.12908878504672799</v>
       </c>
       <c r="M9" s="25">
-        <v>1442</v>
+        <v>1712</v>
       </c>
       <c r="N9" s="25">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="O9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="9">
         <v>2</v>
@@ -2358,7 +2382,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>9</v>
@@ -2366,14 +2390,14 @@
       <c r="D10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>275</v>
+      </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="25" t="b">
@@ -2381,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="L10" s="32">
-        <v>5.5979643765903296E-3</v>
+        <v>1.13082472216806E-2</v>
       </c>
       <c r="M10" s="25">
-        <v>1965</v>
+        <v>5129</v>
       </c>
       <c r="N10" s="25">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="O10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="18" t="s">
-        <v>143</v>
+      <c r="P10" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="Q10" s="9">
         <v>2</v>
@@ -2412,183 +2436,211 @@
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="42" t="s">
+      <c r="A11" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43">
-        <v>1148</v>
-      </c>
-      <c r="G11" s="43">
-        <v>931</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="42"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46">
+        <v>12952</v>
+      </c>
+      <c r="G11" s="46">
+        <v>11815</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47" t="s">
+        <v>25</v>
+      </c>
       <c r="K11" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="42" t="s">
+      <c r="A12" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43">
-        <v>2345</v>
-      </c>
-      <c r="G12" s="43">
-        <v>2205</v>
-      </c>
-      <c r="H12" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46">
+        <v>11341</v>
+      </c>
+      <c r="G12" s="46">
+        <v>9955</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47" t="s">
+        <v>25</v>
+      </c>
       <c r="K12" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43">
-        <v>1156</v>
-      </c>
-      <c r="G13" s="43">
-        <v>1015</v>
-      </c>
-      <c r="H13" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
+      <c r="A13" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="K13" s="25" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="32">
+        <v>0.15913171209401</v>
+      </c>
+      <c r="M13" s="25">
+        <v>6127</v>
+      </c>
+      <c r="N13" s="25">
+        <v>975</v>
+      </c>
+      <c r="O13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
     </row>
     <row r="14" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43">
-        <v>1064</v>
-      </c>
-      <c r="G14" s="43">
-        <v>937</v>
-      </c>
-      <c r="H14" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
+      <c r="A14" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="K14" s="25" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0.20927622966149201</v>
+      </c>
+      <c r="M14" s="25">
+        <v>5347</v>
+      </c>
+      <c r="N14" s="25">
+        <v>1119</v>
+      </c>
+      <c r="O14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>259</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>264</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>23</v>
@@ -2598,21 +2650,21 @@
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="43">
-        <v>2438</v>
+        <v>1148</v>
       </c>
       <c r="G15" s="43">
-        <v>2186</v>
-      </c>
-      <c r="H15" s="82" t="s">
+        <v>931</v>
+      </c>
+      <c r="H15" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25" t="b">
@@ -2628,10 +2680,10 @@
     </row>
     <row r="16" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>23</v>
@@ -2640,11 +2692,11 @@
         <v>24</v>
       </c>
       <c r="E16" s="43"/>
-      <c r="F16" s="82">
-        <v>2880</v>
+      <c r="F16" s="43">
+        <v>2345</v>
       </c>
       <c r="G16" s="43">
-        <v>2754</v>
+        <v>2205</v>
       </c>
       <c r="H16" s="82" t="s">
         <v>23</v>
@@ -2670,30 +2722,33 @@
       <c r="V16" s="25"/>
     </row>
     <row r="17" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="77" t="s">
+      <c r="A17" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78">
-        <v>208</v>
-      </c>
-      <c r="G17" s="78">
-        <v>99</v>
-      </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>1156</v>
+      </c>
+      <c r="G17" s="43">
+        <v>1015</v>
+      </c>
+      <c r="H17" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="25" t="b">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -2711,10 +2766,10 @@
     </row>
     <row r="18" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>23</v>
@@ -2723,11 +2778,11 @@
         <v>24</v>
       </c>
       <c r="E18" s="43"/>
-      <c r="F18" s="82">
-        <v>2295</v>
+      <c r="F18" s="43">
+        <v>1064</v>
       </c>
       <c r="G18" s="43">
-        <v>2210</v>
+        <v>937</v>
       </c>
       <c r="H18" s="82" t="s">
         <v>23</v>
@@ -2735,7 +2790,7 @@
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="25" t="b">
-        <f t="shared" ref="K18:K38" si="2">NOT(O18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L18" s="25"/>
@@ -2753,385 +2808,370 @@
       <c r="V18" s="25"/>
     </row>
     <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="A19" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43">
+        <v>2438</v>
+      </c>
+      <c r="G19" s="43">
+        <v>2186</v>
+      </c>
+      <c r="H19" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+    </row>
+    <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="82">
+        <v>2880</v>
+      </c>
+      <c r="G20" s="43">
+        <v>2754</v>
+      </c>
+      <c r="H20" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+    </row>
+    <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78">
+        <v>208</v>
+      </c>
+      <c r="G21" s="78">
+        <v>99</v>
+      </c>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+    </row>
+    <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="82">
+        <v>2295</v>
+      </c>
+      <c r="G22" s="43">
+        <v>2210</v>
+      </c>
+      <c r="H22" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="25" t="b">
+        <f t="shared" ref="K22:K34" si="2">NOT(O22)</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+    </row>
+    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D23" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="32">
-        <v>0.20927622966149201</v>
-      </c>
-      <c r="M19" s="25">
-        <v>5347</v>
-      </c>
-      <c r="N19" s="25">
-        <v>1119</v>
-      </c>
-      <c r="O19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="32">
-        <v>0.15913171209401</v>
-      </c>
-      <c r="M20" s="25">
-        <v>6127</v>
-      </c>
-      <c r="N20" s="25">
-        <v>975</v>
-      </c>
-      <c r="O20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="32">
-        <v>3.0278884462151299E-2</v>
-      </c>
-      <c r="M21" s="25">
-        <v>11295</v>
-      </c>
-      <c r="N21" s="25">
-        <v>342</v>
-      </c>
-      <c r="O21" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="32">
-        <v>3.59382168527297E-3</v>
-      </c>
-      <c r="M22" s="25">
-        <v>13078</v>
-      </c>
-      <c r="N22" s="25">
-        <v>47</v>
-      </c>
-      <c r="O22" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
-        <v>12952</v>
-      </c>
-      <c r="G23" s="46">
-        <v>11815</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="J23" s="51"/>
       <c r="K23" s="25" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0.13313161875945501</v>
+      </c>
+      <c r="M23" s="25">
+        <v>5949</v>
+      </c>
+      <c r="N23" s="25">
+        <v>792</v>
+      </c>
       <c r="O23" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>152</v>
+        <v>1</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="T23" s="5">
+        <v>35</v>
+      </c>
+      <c r="U23" s="14">
+        <v>3</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46">
-        <v>11341</v>
-      </c>
-      <c r="G24" s="46">
-        <v>9955</v>
-      </c>
-      <c r="H24" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="A24" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="J24" s="51"/>
       <c r="K24" s="25" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0.52565180824222002</v>
+      </c>
+      <c r="M24" s="25">
+        <v>3567</v>
+      </c>
+      <c r="N24" s="25">
+        <v>1875</v>
+      </c>
       <c r="O24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>153</v>
+        <v>1</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="S24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="T24" s="5">
+        <v>27</v>
+      </c>
+      <c r="U24" s="14">
+        <v>3</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="F25" s="46">
-        <v>15777</v>
-      </c>
-      <c r="G25" s="46">
-        <v>7288</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47" t="s">
-        <v>30</v>
-      </c>
+      <c r="A25" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="J25" s="51"/>
       <c r="K25" s="25" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="32">
+        <v>0.35291866028708102</v>
+      </c>
+      <c r="M25" s="25">
+        <v>5225</v>
+      </c>
+      <c r="N25" s="25">
+        <v>1844</v>
+      </c>
       <c r="O25" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="T25" s="5">
+        <v>66</v>
+      </c>
+      <c r="U25" s="14">
+        <v>3</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="46" t="s">
+      <c r="A26" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="46">
-        <v>7223</v>
-      </c>
-      <c r="G26" s="46">
-        <v>6819</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47" t="s">
-        <v>30</v>
-      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53">
+        <v>9773</v>
+      </c>
+      <c r="G26" s="53">
+        <v>7356</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="25" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3142,238 +3182,234 @@
       <c r="O26" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P26" s="13" t="s">
-        <v>157</v>
+      <c r="P26" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="T26" s="5">
+        <v>48</v>
+      </c>
+      <c r="U26" s="14"/>
+      <c r="V26" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="50" t="s">
+      <c r="A27" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="J27" s="51"/>
+      <c r="E27" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="J27" s="57"/>
       <c r="K27" s="25" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="32">
-        <v>0.52565180824222002</v>
+        <v>0.29105873550317901</v>
       </c>
       <c r="M27" s="25">
-        <v>3567</v>
+        <v>2673</v>
       </c>
       <c r="N27" s="25">
-        <v>1875</v>
+        <v>778</v>
       </c>
       <c r="O27" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P27" s="5" t="s">
-        <v>148</v>
+      <c r="P27" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T27" s="5">
-        <v>27</v>
-      </c>
-      <c r="U27" s="14">
-        <v>3</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="5"/>
     </row>
     <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="50" t="s">
+      <c r="A28" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="J28" s="51"/>
+      <c r="E28" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="56">
+        <v>3564</v>
+      </c>
+      <c r="G28" s="56">
+        <v>2011</v>
+      </c>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" s="57"/>
       <c r="K28" s="25" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="32">
-        <v>0.35291866028708102</v>
+        <v>6.8261086198305898E-2</v>
       </c>
       <c r="M28" s="25">
-        <v>5225</v>
+        <v>2007</v>
       </c>
       <c r="N28" s="25">
-        <v>1844</v>
+        <v>137</v>
       </c>
       <c r="O28" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>149</v>
+      <c r="P28" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T28" s="5">
-        <v>66</v>
-      </c>
-      <c r="U28" s="14">
-        <v>3</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="50" t="s">
+      <c r="A29" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="J29" s="51"/>
+      <c r="E29" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" s="57"/>
       <c r="K29" s="25" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="32">
-        <v>0.13313161875945501</v>
+        <v>0.45016077170418001</v>
       </c>
       <c r="M29" s="25">
-        <v>5949</v>
+        <v>622</v>
       </c>
       <c r="N29" s="25">
-        <v>792</v>
+        <v>280</v>
       </c>
       <c r="O29" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>147</v>
+      <c r="P29" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="5"/>
-      <c r="S29" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T29" s="5">
-        <v>35</v>
-      </c>
-      <c r="U29" s="14">
-        <v>3</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
     </row>
     <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53">
-        <v>9773</v>
-      </c>
-      <c r="G30" s="53">
-        <v>7356</v>
-      </c>
-      <c r="H30" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="A30" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" s="57"/>
       <c r="K30" s="25" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="32">
+        <v>0.172672672672672</v>
+      </c>
+      <c r="M30" s="25">
+        <v>666</v>
+      </c>
+      <c r="N30" s="25">
+        <v>115</v>
+      </c>
       <c r="O30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="Q30" s="9"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="T30" s="5">
-        <v>48</v>
-      </c>
-      <c r="U30" s="14"/>
-      <c r="V30" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="R30" s="16"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="55" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>9</v>
@@ -3381,14 +3417,16 @@
       <c r="D31" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56">
+        <v>1855</v>
+      </c>
+      <c r="G31" s="56">
+        <v>1632</v>
+      </c>
       <c r="H31" s="56"/>
       <c r="I31" s="56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J31" s="57"/>
       <c r="K31" s="25" t="b">
@@ -3396,23 +3434,23 @@
         <v>0</v>
       </c>
       <c r="L31" s="32">
-        <v>0.55083655083655003</v>
+        <v>0.37193627450980299</v>
       </c>
       <c r="M31" s="25">
-        <v>1554</v>
+        <v>1632</v>
       </c>
       <c r="N31" s="25">
-        <v>856</v>
+        <v>607</v>
       </c>
       <c r="O31" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q31" s="9"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="13"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
@@ -3422,7 +3460,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>9</v>
@@ -3430,14 +3468,14 @@
       <c r="D32" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56" t="s">
+        <v>275</v>
+      </c>
       <c r="G32" s="56"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J32" s="57"/>
       <c r="K32" s="25" t="b">
@@ -3445,23 +3483,23 @@
         <v>0</v>
       </c>
       <c r="L32" s="32">
-        <v>0.5</v>
+        <v>0.423401090728805</v>
       </c>
       <c r="M32" s="25">
-        <v>1064</v>
+        <v>2017</v>
       </c>
       <c r="N32" s="25">
-        <v>532</v>
+        <v>854</v>
       </c>
       <c r="O32" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q32" s="9"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="13"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="15"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
@@ -3471,7 +3509,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C33" s="56" t="s">
         <v>9</v>
@@ -3482,11 +3520,15 @@
       <c r="E33" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="F33" s="56">
+        <v>1867</v>
+      </c>
+      <c r="G33" s="56">
+        <v>1555</v>
+      </c>
       <c r="H33" s="56"/>
       <c r="I33" s="56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J33" s="57"/>
       <c r="K33" s="25" t="b">
@@ -3494,23 +3536,23 @@
         <v>0</v>
       </c>
       <c r="L33" s="32">
-        <v>0.45016077170418001</v>
+        <v>0.55083655083655003</v>
       </c>
       <c r="M33" s="25">
-        <v>622</v>
+        <v>1554</v>
       </c>
       <c r="N33" s="25">
-        <v>280</v>
+        <v>856</v>
       </c>
       <c r="O33" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P33" s="15" t="s">
-        <v>166</v>
+      <c r="P33" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="Q33" s="9"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="13"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
@@ -3520,7 +3562,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C34" s="56" t="s">
         <v>9</v>
@@ -3528,12 +3570,18 @@
       <c r="D34" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="E34" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="56">
+        <v>1229</v>
+      </c>
+      <c r="G34" s="56">
+        <v>1058</v>
+      </c>
       <c r="H34" s="56"/>
       <c r="I34" s="56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J34" s="57"/>
       <c r="K34" s="25" t="b">
@@ -3541,219 +3589,193 @@
         <v>0</v>
       </c>
       <c r="L34" s="32">
-        <v>0.423401090728805</v>
+        <v>0.5</v>
       </c>
       <c r="M34" s="25">
-        <v>2017</v>
+        <v>1064</v>
       </c>
       <c r="N34" s="25">
-        <v>854</v>
+        <v>532</v>
       </c>
       <c r="O34" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q34" s="9"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="15"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="13"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
     </row>
     <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="56" t="s">
+      <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="J35" s="57"/>
+      <c r="D35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="26"/>
       <c r="K35" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="32">
-        <v>0.37193627450980299</v>
-      </c>
-      <c r="M35" s="25">
-        <v>1632</v>
-      </c>
-      <c r="N35" s="25">
-        <v>607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L35" s="30"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
       <c r="O35" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P35" s="13" t="s">
-        <v>168</v>
+        <v>0</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="Q35" s="9"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="5"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="T35" s="6">
+        <v>52.334246575342469</v>
+      </c>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="56" t="s">
+      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="J36" s="57"/>
+      <c r="D36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="26"/>
       <c r="K36" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="32">
-        <v>0.29105873550317901</v>
-      </c>
-      <c r="M36" s="25">
-        <v>2673</v>
-      </c>
-      <c r="N36" s="25">
-        <v>778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L36" s="30"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
       <c r="O36" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q36" s="9"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="14"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="T36" s="6">
+        <v>62.824657534246576</v>
+      </c>
+      <c r="U36" s="5"/>
       <c r="V36" s="5"/>
     </row>
     <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="56" t="s">
+      <c r="B37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="J37" s="57"/>
+      <c r="D37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="26"/>
       <c r="K37" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="32">
-        <v>0.172672672672672</v>
-      </c>
-      <c r="M37" s="25">
-        <v>666</v>
-      </c>
-      <c r="N37" s="25">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L37" s="30"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
       <c r="O37" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>167</v>
+        <v>0</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="Q37" s="9"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="5"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="T37" s="6">
+        <v>58.43013698630137</v>
+      </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="56" t="s">
+      <c r="B38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="J38" s="57"/>
+      <c r="D38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="26"/>
       <c r="K38" s="25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="32">
-        <v>6.8261086198305898E-2</v>
-      </c>
-      <c r="M38" s="25">
-        <v>2007</v>
-      </c>
-      <c r="N38" s="25">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L38" s="30"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
       <c r="O38" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="14"/>
+      <c r="S38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="T38" s="6">
+        <v>41.156164383561645</v>
+      </c>
+      <c r="U38" s="5"/>
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3761,7 +3783,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>9</v>
@@ -3785,15 +3807,15 @@
         <v>0</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q39" s="9"/>
-      <c r="R39" s="17"/>
+      <c r="R39" s="5"/>
       <c r="S39" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T39" s="6">
-        <v>52.334246575342469</v>
+        <v>40.638356164383559</v>
       </c>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
@@ -3803,7 +3825,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>9</v>
@@ -3827,15 +3849,15 @@
         <v>0</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q40" s="9"/>
-      <c r="R40" s="17"/>
+      <c r="R40" s="5"/>
       <c r="S40" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T40" s="6">
-        <v>62.824657534246576</v>
+        <v>46.282191780821918</v>
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
@@ -3845,7 +3867,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>9</v>
@@ -3869,15 +3891,15 @@
         <v>0</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q41" s="9"/>
-      <c r="R41" s="17"/>
+      <c r="R41" s="5"/>
       <c r="S41" s="5" t="s">
         <v>160</v>
       </c>
       <c r="T41" s="6">
-        <v>58.43013698630137</v>
+        <v>46.052054794520551</v>
       </c>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
@@ -3887,7 +3909,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>9</v>
@@ -3911,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="5"/>
@@ -3919,7 +3941,7 @@
         <v>161</v>
       </c>
       <c r="T42" s="6">
-        <v>41.156164383561645</v>
+        <v>39.252054794520546</v>
       </c>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
@@ -3929,7 +3951,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>9</v>
@@ -3953,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="5"/>
@@ -3961,7 +3983,7 @@
         <v>161</v>
       </c>
       <c r="T43" s="6">
-        <v>40.638356164383559</v>
+        <v>39.849315068493148</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -3971,7 +3993,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>9</v>
@@ -3995,15 +4017,15 @@
         <v>0</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T44" s="6">
-        <v>46.282191780821918</v>
+        <v>40.517808219178079</v>
       </c>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
@@ -4013,7 +4035,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>9</v>
@@ -4037,15 +4059,15 @@
         <v>0</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q45" s="9"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T45" s="6">
-        <v>46.052054794520551</v>
+        <v>39.336986301369862</v>
       </c>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
@@ -4055,7 +4077,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>9</v>
@@ -4079,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q46" s="9"/>
       <c r="R46" s="5"/>
@@ -4087,7 +4109,7 @@
         <v>161</v>
       </c>
       <c r="T46" s="6">
-        <v>39.252054794520546</v>
+        <v>39.556164383561644</v>
       </c>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
@@ -4097,7 +4119,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>9</v>
@@ -4121,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q47" s="9"/>
       <c r="R47" s="5"/>
@@ -4129,7 +4151,7 @@
         <v>161</v>
       </c>
       <c r="T47" s="6">
-        <v>39.849315068493148</v>
+        <v>39.556164383561644</v>
       </c>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
@@ -4139,7 +4161,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>9</v>
@@ -4163,15 +4185,15 @@
         <v>0</v>
       </c>
       <c r="P48" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q48" s="9"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T48" s="6">
-        <v>40.517808219178079</v>
+        <v>47.843835616438355</v>
       </c>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
@@ -4181,7 +4203,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>9</v>
@@ -4205,15 +4227,15 @@
         <v>0</v>
       </c>
       <c r="P49" s="15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q49" s="9"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T49" s="6">
-        <v>39.336986301369862</v>
+        <v>48.112328767123287</v>
       </c>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
@@ -4223,7 +4245,7 @@
         <v>39</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>9</v>
@@ -4247,15 +4269,15 @@
         <v>0</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T50" s="6">
-        <v>39.556164383561644</v>
+        <v>47.613698630136987</v>
       </c>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
@@ -4265,7 +4287,7 @@
         <v>39</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>9</v>
@@ -4289,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q51" s="9"/>
       <c r="R51" s="5"/>
@@ -4297,7 +4319,7 @@
         <v>161</v>
       </c>
       <c r="T51" s="6">
-        <v>39.556164383561644</v>
+        <v>44.739726027397261</v>
       </c>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
@@ -4307,7 +4329,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>9</v>
@@ -4331,40 +4353,47 @@
         <v>0</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T52" s="6">
-        <v>47.843835616438355</v>
+        <v>37.794520547945204</v>
       </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
     </row>
     <row r="53" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="26"/>
+      <c r="B53" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59">
+        <v>2582</v>
+      </c>
+      <c r="G53" s="59">
+        <v>2426</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="59"/>
+      <c r="J53" s="60"/>
       <c r="K53" s="25" t="b">
-        <v>0</v>
+        <f t="shared" ref="K53:K65" si="3">NOT(O53)</f>
+        <v>1</v>
       </c>
       <c r="L53" s="30"/>
       <c r="M53" s="5"/>
@@ -4373,40 +4402,47 @@
         <v>0</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q53" s="9"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T53" s="6">
-        <v>48.112328767123287</v>
+        <v>37.471232876712328</v>
       </c>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="26"/>
+      <c r="B54" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59">
+        <v>1033</v>
+      </c>
+      <c r="G54" s="59">
+        <v>859</v>
+      </c>
+      <c r="H54" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="59"/>
+      <c r="J54" s="60"/>
       <c r="K54" s="25" t="b">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L54" s="30"/>
       <c r="M54" s="5"/>
@@ -4415,40 +4451,45 @@
         <v>0</v>
       </c>
       <c r="P54" s="15" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q54" s="9"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T54" s="6">
-        <v>47.613698630136987</v>
+        <v>36.589041095890408</v>
       </c>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="26"/>
+      <c r="B55" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80">
+        <v>355</v>
+      </c>
+      <c r="G55" s="80">
+        <v>316</v>
+      </c>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="81"/>
       <c r="K55" s="25" t="b">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L55" s="30"/>
       <c r="M55" s="5"/>
@@ -4457,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q55" s="9"/>
       <c r="R55" s="5"/>
@@ -4465,32 +4506,39 @@
         <v>161</v>
       </c>
       <c r="T55" s="6">
-        <v>44.739726027397261</v>
+        <v>65.569863013698637</v>
       </c>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="26"/>
+      <c r="B56" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59">
+        <v>1531</v>
+      </c>
+      <c r="G56" s="59">
+        <v>1362</v>
+      </c>
+      <c r="H56" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="59"/>
+      <c r="J56" s="60"/>
       <c r="K56" s="25" t="b">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L56" s="30"/>
       <c r="M56" s="5"/>
@@ -4499,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q56" s="9"/>
       <c r="R56" s="5"/>
@@ -4507,38 +4555,36 @@
         <v>161</v>
       </c>
       <c r="T56" s="6">
-        <v>37.794520547945204</v>
+        <v>40.227397260273975</v>
       </c>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
     </row>
     <row r="57" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="59" t="s">
+      <c r="B57" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59">
-        <v>2582</v>
-      </c>
-      <c r="G57" s="59">
-        <v>2426</v>
-      </c>
-      <c r="H57" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" s="59"/>
-      <c r="J57" s="60"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80">
+        <v>281</v>
+      </c>
+      <c r="G57" s="80">
+        <v>73</v>
+      </c>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="81"/>
       <c r="K57" s="25" t="b">
-        <f t="shared" ref="K57:K69" si="3">NOT(O57)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L57" s="30"/>
@@ -4548,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q57" s="9"/>
       <c r="R57" s="5"/>
@@ -4556,7 +4602,7 @@
         <v>161</v>
       </c>
       <c r="T57" s="6">
-        <v>37.471232876712328</v>
+        <v>39.838356164383562</v>
       </c>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
@@ -4566,7 +4612,7 @@
         <v>39</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C58" s="59" t="s">
         <v>23</v>
@@ -4576,10 +4622,10 @@
       </c>
       <c r="E58" s="59"/>
       <c r="F58" s="59">
-        <v>1033</v>
+        <v>1171</v>
       </c>
       <c r="G58" s="59">
-        <v>859</v>
+        <v>576</v>
       </c>
       <c r="H58" s="59" t="s">
         <v>23</v>
@@ -4597,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q58" s="9"/>
       <c r="R58" s="5"/>
@@ -4605,34 +4651,36 @@
         <v>161</v>
       </c>
       <c r="T58" s="6">
-        <v>36.589041095890408</v>
+        <v>41.098630136986301</v>
       </c>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
     </row>
     <row r="59" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="79" t="s">
+      <c r="A59" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="80" t="s">
+      <c r="B59" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80">
-        <v>355</v>
-      </c>
-      <c r="G59" s="80">
-        <v>316</v>
-      </c>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="81"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59">
+        <v>839</v>
+      </c>
+      <c r="G59" s="59">
+        <v>561</v>
+      </c>
+      <c r="H59" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="59"/>
+      <c r="J59" s="60"/>
       <c r="K59" s="25" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4644,15 +4692,15 @@
         <v>0</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q59" s="9"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T59" s="6">
-        <v>65.569863013698637</v>
+        <v>51.876712328767127</v>
       </c>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
@@ -4662,7 +4710,7 @@
         <v>39</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C60" s="59" t="s">
         <v>23</v>
@@ -4672,10 +4720,10 @@
       </c>
       <c r="E60" s="59"/>
       <c r="F60" s="59">
-        <v>1531</v>
+        <v>3871</v>
       </c>
       <c r="G60" s="59">
-        <v>1362</v>
+        <v>2734</v>
       </c>
       <c r="H60" s="59" t="s">
         <v>23</v>
@@ -4693,42 +4741,44 @@
         <v>0</v>
       </c>
       <c r="P60" s="15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q60" s="9"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T60" s="6">
-        <v>40.227397260273975</v>
+        <v>51.876712328767127</v>
       </c>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
     </row>
     <row r="61" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="80" t="s">
+      <c r="B61" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80">
-        <v>281</v>
-      </c>
-      <c r="G61" s="80">
-        <v>73</v>
-      </c>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="81"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59">
+        <v>2615</v>
+      </c>
+      <c r="G61" s="59">
+        <v>2263</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="59"/>
+      <c r="J61" s="60"/>
       <c r="K61" s="25" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4740,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q61" s="9"/>
       <c r="R61" s="5"/>
@@ -4748,7 +4798,7 @@
         <v>161</v>
       </c>
       <c r="T61" s="6">
-        <v>39.838356164383562</v>
+        <v>73.558904109589037</v>
       </c>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
@@ -4758,7 +4808,7 @@
         <v>39</v>
       </c>
       <c r="B62" s="59" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C62" s="59" t="s">
         <v>23</v>
@@ -4768,10 +4818,10 @@
       </c>
       <c r="E62" s="59"/>
       <c r="F62" s="59">
-        <v>1171</v>
+        <v>2490</v>
       </c>
       <c r="G62" s="59">
-        <v>576</v>
+        <v>1485</v>
       </c>
       <c r="H62" s="59" t="s">
         <v>23</v>
@@ -4789,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="5"/>
@@ -4797,36 +4847,32 @@
         <v>161</v>
       </c>
       <c r="T62" s="6">
-        <v>41.098630136986301</v>
+        <v>73.558904109589037</v>
       </c>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59">
-        <v>839</v>
-      </c>
-      <c r="G63" s="59">
-        <v>561</v>
-      </c>
-      <c r="H63" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="59"/>
-      <c r="J63" s="60"/>
+      <c r="A63" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="26"/>
       <c r="K63" s="25" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4838,44 +4884,36 @@
         <v>0</v>
       </c>
       <c r="P63" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q63" s="9"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T63" s="6">
-        <v>51.876712328767127</v>
-      </c>
+      <c r="S63" s="5"/>
+      <c r="T63" s="16"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59">
-        <v>3871</v>
-      </c>
-      <c r="G64" s="59">
-        <v>2734</v>
-      </c>
-      <c r="H64" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64" s="59"/>
-      <c r="J64" s="60"/>
+      <c r="A64" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="26"/>
       <c r="K64" s="25" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4887,44 +4925,36 @@
         <v>0</v>
       </c>
       <c r="P64" s="15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q64" s="9"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T64" s="6">
-        <v>51.876712328767127</v>
-      </c>
+      <c r="S64" s="5"/>
+      <c r="T64" s="16"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
     </row>
     <row r="65" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59">
-        <v>2615</v>
-      </c>
-      <c r="G65" s="59">
-        <v>2263</v>
-      </c>
-      <c r="H65" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="59"/>
-      <c r="J65" s="60"/>
+      <c r="A65" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="26"/>
       <c r="K65" s="25" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4936,47 +4966,38 @@
         <v>0</v>
       </c>
       <c r="P65" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q65" s="9"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="T65" s="6">
-        <v>73.558904109589037</v>
-      </c>
+      <c r="S65" s="5"/>
+      <c r="T65" s="16"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
     </row>
     <row r="66" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="59" t="s">
+      <c r="A66" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59">
-        <v>2490</v>
-      </c>
-      <c r="G66" s="59">
-        <v>1485</v>
-      </c>
-      <c r="H66" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I66" s="59"/>
-      <c r="J66" s="60"/>
+      <c r="E66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="26"/>
       <c r="K66" s="25" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="30"/>
       <c r="M66" s="5"/>
@@ -4985,42 +5006,46 @@
         <v>0</v>
       </c>
       <c r="P66" s="15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q66" s="9"/>
       <c r="R66" s="5"/>
-      <c r="S66" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="T66" s="6">
-        <v>73.558904109589037</v>
-      </c>
+      <c r="S66" s="5"/>
+      <c r="T66" s="16"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="26"/>
+      <c r="A67" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="F67" s="46">
+        <v>15777</v>
+      </c>
+      <c r="G67" s="46">
+        <v>7288</v>
+      </c>
+      <c r="H67" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="46"/>
+      <c r="J67" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="K67" s="25" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K67:K114" si="4">NOT(O67)</f>
         <v>1</v>
       </c>
       <c r="L67" s="30"/>
@@ -5029,39 +5054,47 @@
       <c r="O67" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P67" s="15" t="s">
-        <v>200</v>
+      <c r="P67" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="Q67" s="9"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
-      <c r="T67" s="16"/>
+      <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
     </row>
     <row r="68" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="A68" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="26"/>
+      <c r="F68" s="46">
+        <v>7223</v>
+      </c>
+      <c r="G68" s="46">
+        <v>6819</v>
+      </c>
+      <c r="H68" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" s="46"/>
+      <c r="J68" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="K68" s="25" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L68" s="30"/>
@@ -5070,95 +5103,126 @@
       <c r="O68" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P68" s="15" t="s">
-        <v>201</v>
+      <c r="P68" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="Q68" s="9"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
-      <c r="T68" s="16"/>
+      <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="A69" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="26"/>
+      <c r="F69" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J69" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="K69" s="25" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L69" s="30"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="32">
+        <v>3.0278884462151299E-2</v>
+      </c>
+      <c r="M69" s="25">
+        <v>11295</v>
+      </c>
+      <c r="N69" s="25">
+        <v>342</v>
+      </c>
       <c r="O69" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P69" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q69" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P69" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>0.5</v>
+      </c>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="14"/>
       <c r="V69" s="5"/>
     </row>
     <row r="70" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="5" t="s">
+      <c r="A70" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="26"/>
+      <c r="F70" s="34">
+        <v>15757</v>
+      </c>
+      <c r="G70" s="34">
+        <v>13190</v>
+      </c>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J70" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="K70" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="30"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="32">
+        <v>3.59382168527297E-3</v>
+      </c>
+      <c r="M70" s="25">
+        <v>13078</v>
+      </c>
+      <c r="N70" s="25">
+        <v>47</v>
+      </c>
       <c r="O70" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P70" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q70" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P70" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>0.5</v>
+      </c>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="14"/>
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -5166,7 +5230,7 @@
         <v>83</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" s="65" t="s">
         <v>9</v>
@@ -5175,43 +5239,45 @@
         <v>10</v>
       </c>
       <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
+      <c r="F71" s="65" t="s">
+        <v>275</v>
+      </c>
       <c r="G71" s="65"/>
       <c r="H71" s="65"/>
       <c r="I71" s="65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J71" s="66" t="s">
         <v>30</v>
       </c>
       <c r="K71" s="25" t="b">
-        <f t="shared" ref="K71:K114" si="4">NOT(O71)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L71" s="32">
-        <v>0.115989927604658</v>
+        <v>4.9027552674230097E-2</v>
       </c>
       <c r="M71" s="25">
-        <v>6354</v>
+        <v>4936</v>
       </c>
       <c r="N71" s="25">
-        <v>737</v>
+        <v>242</v>
       </c>
       <c r="O71" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R71" s="5"/>
       <c r="S71" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T71" s="5">
-        <v>32</v>
+        <v>161</v>
+      </c>
+      <c r="T71" s="16">
+        <v>51</v>
       </c>
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
@@ -5221,7 +5287,7 @@
         <v>83</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" s="65" t="s">
         <v>9</v>
@@ -5230,11 +5296,13 @@
         <v>10</v>
       </c>
       <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
+      <c r="F72" s="65" t="s">
+        <v>275</v>
+      </c>
       <c r="G72" s="65"/>
       <c r="H72" s="65"/>
       <c r="I72" s="65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J72" s="66" t="s">
         <v>30</v>
@@ -5244,29 +5312,29 @@
         <v>0</v>
       </c>
       <c r="L72" s="32">
-        <v>4.9027552674230097E-2</v>
+        <v>3.03454715219421E-2</v>
       </c>
       <c r="M72" s="25">
-        <v>4936</v>
+        <v>4284</v>
       </c>
       <c r="N72" s="25">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="O72" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R72" s="5"/>
       <c r="S72" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T72" s="16">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="U72" s="5"/>
       <c r="V72" s="5"/>
@@ -5276,7 +5344,7 @@
         <v>83</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C73" s="65" t="s">
         <v>9</v>
@@ -5285,11 +5353,13 @@
         <v>10</v>
       </c>
       <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
+      <c r="F73" s="65" t="s">
+        <v>275</v>
+      </c>
       <c r="G73" s="65"/>
       <c r="H73" s="65"/>
       <c r="I73" s="65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J73" s="66" t="s">
         <v>30</v>
@@ -5299,29 +5369,29 @@
         <v>0</v>
       </c>
       <c r="L73" s="32">
-        <v>3.03454715219421E-2</v>
+        <v>0.115989927604658</v>
       </c>
       <c r="M73" s="25">
-        <v>4284</v>
+        <v>6354</v>
       </c>
       <c r="N73" s="25">
-        <v>130</v>
+        <v>737</v>
       </c>
       <c r="O73" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P73" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R73" s="5"/>
       <c r="S73" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="T73" s="16">
-        <v>27</v>
+      <c r="T73" s="5">
+        <v>32</v>
       </c>
       <c r="U73" s="5"/>
       <c r="V73" s="5"/>
@@ -5610,11 +5680,13 @@
         <v>10</v>
       </c>
       <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
+      <c r="F80" s="68" t="s">
+        <v>275</v>
+      </c>
       <c r="G80" s="68"/>
       <c r="H80" s="68"/>
       <c r="I80" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J80" s="69" t="s">
         <v>95</v>
@@ -5650,7 +5722,7 @@
         <v>93</v>
       </c>
       <c r="B81" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="68" t="s">
         <v>9</v>
@@ -5659,43 +5731,45 @@
         <v>10</v>
       </c>
       <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
+      <c r="F81" s="68" t="s">
+        <v>275</v>
+      </c>
       <c r="G81" s="68"/>
       <c r="H81" s="68"/>
       <c r="I81" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J81" s="69" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K81" s="25" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L81" s="32">
-        <v>0.18932617769827001</v>
+        <v>3.89243391066545E-2</v>
       </c>
       <c r="M81" s="25">
-        <v>6708</v>
+        <v>10970</v>
       </c>
       <c r="N81" s="25">
-        <v>1270</v>
+        <v>427</v>
       </c>
       <c r="O81" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P81" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R81" s="5"/>
       <c r="S81" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T81" s="16">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="U81" s="5"/>
       <c r="V81" s="5"/>
@@ -5705,7 +5779,7 @@
         <v>93</v>
       </c>
       <c r="B82" s="68" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C82" s="68" t="s">
         <v>9</v>
@@ -5714,43 +5788,45 @@
         <v>10</v>
       </c>
       <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
+      <c r="F82" s="68" t="s">
+        <v>275</v>
+      </c>
       <c r="G82" s="68"/>
       <c r="H82" s="68"/>
       <c r="I82" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J82" s="69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K82" s="25" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L82" s="32">
-        <v>0.150320543488661</v>
+        <v>0.18932617769827001</v>
       </c>
       <c r="M82" s="25">
-        <v>10451</v>
+        <v>6708</v>
       </c>
       <c r="N82" s="25">
-        <v>1571</v>
+        <v>1270</v>
       </c>
       <c r="O82" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P82" s="13" t="s">
-        <v>223</v>
+      <c r="P82" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R82" s="5"/>
       <c r="S82" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="T82" s="5">
-        <v>32</v>
+      <c r="T82" s="16">
+        <v>27</v>
       </c>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
@@ -5769,11 +5845,15 @@
         <v>10</v>
       </c>
       <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
+      <c r="F83" s="68">
+        <v>1392</v>
+      </c>
+      <c r="G83" s="68">
+        <v>1324</v>
+      </c>
       <c r="H83" s="68"/>
       <c r="I83" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J83" s="69" t="s">
         <v>100</v>
@@ -5815,7 +5895,7 @@
         <v>93</v>
       </c>
       <c r="B84" s="68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C84" s="68" t="s">
         <v>9</v>
@@ -5824,43 +5904,45 @@
         <v>10</v>
       </c>
       <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
+      <c r="F84" s="68" t="s">
+        <v>275</v>
+      </c>
       <c r="G84" s="68"/>
       <c r="H84" s="68"/>
       <c r="I84" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J84" s="69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K84" s="25" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L84" s="32">
-        <v>9.1139883219091097E-2</v>
+        <v>6.7207112970711302E-2</v>
       </c>
       <c r="M84" s="25">
-        <v>3939</v>
+        <v>3824</v>
       </c>
       <c r="N84" s="25">
-        <v>359</v>
+        <v>257</v>
       </c>
       <c r="O84" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P84" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q84" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
+      </c>
+      <c r="Q84" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="R84" s="5"/>
-      <c r="S84" s="5" t="s">
+      <c r="S84" s="17" t="s">
         <v>160</v>
       </c>
       <c r="T84" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
@@ -5879,11 +5961,13 @@
         <v>10</v>
       </c>
       <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
+      <c r="F85" s="68" t="s">
+        <v>275</v>
+      </c>
       <c r="G85" s="68"/>
       <c r="H85" s="68"/>
       <c r="I85" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J85" s="69" t="s">
         <v>98</v>
@@ -5925,7 +6009,7 @@
         <v>93</v>
       </c>
       <c r="B86" s="68" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C86" s="68" t="s">
         <v>9</v>
@@ -5934,43 +6018,45 @@
         <v>10</v>
       </c>
       <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
+      <c r="F86" s="68" t="s">
+        <v>275</v>
+      </c>
       <c r="G86" s="68"/>
       <c r="H86" s="68"/>
       <c r="I86" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J86" s="69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K86" s="25" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L86" s="32">
-        <v>6.7207112970711302E-2</v>
+        <v>9.1139883219091097E-2</v>
       </c>
       <c r="M86" s="25">
-        <v>3824</v>
+        <v>3939</v>
       </c>
       <c r="N86" s="25">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="O86" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P86" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q86" s="16" t="s">
-        <v>230</v>
+        <v>222</v>
+      </c>
+      <c r="Q86" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="R86" s="5"/>
-      <c r="S86" s="17" t="s">
+      <c r="S86" s="5" t="s">
         <v>160</v>
       </c>
       <c r="T86" s="5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
@@ -5980,7 +6066,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="68" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C87" s="68" t="s">
         <v>9</v>
@@ -5989,43 +6075,45 @@
         <v>10</v>
       </c>
       <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
+      <c r="F87" s="68" t="s">
+        <v>275</v>
+      </c>
       <c r="G87" s="68"/>
       <c r="H87" s="68"/>
       <c r="I87" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J87" s="69" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K87" s="25" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L87" s="32">
-        <v>3.89243391066545E-2</v>
+        <v>0.150320543488661</v>
       </c>
       <c r="M87" s="25">
-        <v>10970</v>
+        <v>10451</v>
       </c>
       <c r="N87" s="25">
-        <v>427</v>
+        <v>1571</v>
       </c>
       <c r="O87" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P87" s="15" t="s">
-        <v>217</v>
+      <c r="P87" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R87" s="5"/>
       <c r="S87" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="T87" s="16">
-        <v>51</v>
+        <v>160</v>
+      </c>
+      <c r="T87" s="5">
+        <v>32</v>
       </c>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
@@ -6313,7 +6401,7 @@
         <v>111</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>9</v>
@@ -6322,11 +6410,13 @@
         <v>10</v>
       </c>
       <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
+      <c r="F94" s="21" t="s">
+        <v>275</v>
+      </c>
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
       <c r="I94" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J94" s="28" t="s">
         <v>113</v>
@@ -6335,30 +6425,30 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L94" s="31">
-        <v>0.80361305361305302</v>
+      <c r="L94" s="32">
+        <v>0.47960848287112501</v>
       </c>
       <c r="M94" s="25">
-        <v>1716</v>
+        <v>6130</v>
       </c>
       <c r="N94" s="25">
-        <v>1379</v>
+        <v>2940</v>
       </c>
       <c r="O94" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q94" s="9" t="s">
-        <v>215</v>
+        <v>231</v>
+      </c>
+      <c r="Q94" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="R94" s="5"/>
-      <c r="S94" s="5" t="s">
+      <c r="S94" s="17" t="s">
         <v>160</v>
       </c>
       <c r="T94" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U94" s="5"/>
       <c r="V94" s="5"/>
@@ -6368,7 +6458,7 @@
         <v>111</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C95" s="21" t="s">
         <v>9</v>
@@ -6377,11 +6467,15 @@
         <v>10</v>
       </c>
       <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
+      <c r="F95" s="21">
+        <v>1869</v>
+      </c>
+      <c r="G95" s="21">
+        <v>1711</v>
+      </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J95" s="28" t="s">
         <v>113</v>
@@ -6391,29 +6485,29 @@
         <v>0</v>
       </c>
       <c r="L95" s="31">
-        <v>0.70785173375846899</v>
+        <v>0.80361305361305302</v>
       </c>
       <c r="M95" s="25">
-        <v>2509</v>
+        <v>1716</v>
       </c>
       <c r="N95" s="25">
-        <v>1776</v>
+        <v>1379</v>
       </c>
       <c r="O95" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P95" s="13" t="s">
-        <v>235</v>
+      <c r="P95" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="R95" s="5"/>
-      <c r="S95" s="16" t="s">
+      <c r="S95" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="T95" s="15">
-        <v>45</v>
+      <c r="T95" s="5">
+        <v>32</v>
       </c>
       <c r="U95" s="5"/>
       <c r="V95" s="5"/>
@@ -6432,11 +6526,15 @@
         <v>10</v>
       </c>
       <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
+      <c r="F96" s="21">
+        <v>6558</v>
+      </c>
+      <c r="G96" s="21">
+        <v>6065</v>
+      </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J96" s="28" t="s">
         <v>113</v>
@@ -6478,7 +6576,7 @@
         <v>111</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>9</v>
@@ -6487,11 +6585,15 @@
         <v>10</v>
       </c>
       <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
+      <c r="F97" s="21">
+        <v>1546</v>
+      </c>
+      <c r="G97" s="21">
+        <v>1468</v>
+      </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J97" s="28" t="s">
         <v>113</v>
@@ -6500,30 +6602,30 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L97" s="31">
-        <v>0.60996462264150897</v>
+      <c r="L97" s="32">
+        <v>0.26237288135593201</v>
       </c>
       <c r="M97" s="25">
-        <v>3392</v>
+        <v>1475</v>
       </c>
       <c r="N97" s="25">
-        <v>2069</v>
+        <v>387</v>
       </c>
       <c r="O97" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P97" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R97" s="5"/>
       <c r="S97" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T97" s="16">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="U97" s="5"/>
       <c r="V97" s="5"/>
@@ -6533,7 +6635,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>9</v>
@@ -6542,11 +6644,13 @@
         <v>10</v>
       </c>
       <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
+      <c r="F98" s="21" t="s">
+        <v>275</v>
+      </c>
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
       <c r="I98" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J98" s="28" t="s">
         <v>113</v>
@@ -6556,19 +6660,19 @@
         <v>0</v>
       </c>
       <c r="L98" s="31">
-        <v>0.60723514211886298</v>
+        <v>0.70785173375846899</v>
       </c>
       <c r="M98" s="25">
-        <v>6192</v>
+        <v>2509</v>
       </c>
       <c r="N98" s="25">
-        <v>3760</v>
+        <v>1776</v>
       </c>
       <c r="O98" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P98" s="13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q98" s="9" t="s">
         <v>251</v>
@@ -6597,11 +6701,15 @@
         <v>10</v>
       </c>
       <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="21"/>
+      <c r="F99" s="21">
+        <v>13172</v>
+      </c>
+      <c r="G99" s="21">
+        <v>12340</v>
+      </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J99" s="28" t="s">
         <v>113</v>
@@ -6652,11 +6760,15 @@
         <v>10</v>
       </c>
       <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21"/>
+      <c r="F100" s="21">
+        <v>7810</v>
+      </c>
+      <c r="G100" s="21">
+        <v>7392</v>
+      </c>
       <c r="H100" s="21"/>
       <c r="I100" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J100" s="28" t="s">
         <v>113</v>
@@ -6698,7 +6810,7 @@
         <v>111</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C101" s="21" t="s">
         <v>9</v>
@@ -6707,11 +6819,13 @@
         <v>10</v>
       </c>
       <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
+      <c r="F101" s="21" t="s">
+        <v>275</v>
+      </c>
       <c r="G101" s="21"/>
       <c r="H101" s="21"/>
       <c r="I101" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J101" s="28" t="s">
         <v>113</v>
@@ -6720,30 +6834,30 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L101" s="32">
-        <v>0.52573717402420295</v>
+      <c r="L101" s="31">
+        <v>0.60996462264150897</v>
       </c>
       <c r="M101" s="25">
-        <v>11734</v>
+        <v>3392</v>
       </c>
       <c r="N101" s="25">
-        <v>6169</v>
+        <v>2069</v>
       </c>
       <c r="O101" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P101" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R101" s="5"/>
       <c r="S101" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T101" s="16">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="U101" s="5"/>
       <c r="V101" s="5"/>
@@ -6753,7 +6867,7 @@
         <v>111</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C102" s="21" t="s">
         <v>9</v>
@@ -6762,11 +6876,13 @@
         <v>10</v>
       </c>
       <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
+      <c r="F102" s="21" t="s">
+        <v>275</v>
+      </c>
       <c r="G102" s="21"/>
       <c r="H102" s="21"/>
       <c r="I102" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J102" s="28" t="s">
         <v>113</v>
@@ -6776,29 +6892,29 @@
         <v>0</v>
       </c>
       <c r="L102" s="32">
-        <v>0.47960848287112501</v>
+        <v>0.52573717402420295</v>
       </c>
       <c r="M102" s="25">
-        <v>6130</v>
+        <v>11734</v>
       </c>
       <c r="N102" s="25">
-        <v>2940</v>
+        <v>6169</v>
       </c>
       <c r="O102" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P102" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q102" s="16" t="s">
-        <v>230</v>
+      <c r="P102" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q102" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="R102" s="5"/>
-      <c r="S102" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="T102" s="5">
-        <v>27</v>
+      <c r="S102" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="T102" s="16">
+        <v>51</v>
       </c>
       <c r="U102" s="5"/>
       <c r="V102" s="5"/>
@@ -6808,7 +6924,7 @@
         <v>111</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>9</v>
@@ -6817,11 +6933,15 @@
         <v>10</v>
       </c>
       <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
+      <c r="F103" s="21">
+        <v>6461</v>
+      </c>
+      <c r="G103" s="21">
+        <v>6153</v>
+      </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J103" s="28" t="s">
         <v>113</v>
@@ -6830,30 +6950,30 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L103" s="32">
-        <v>0.26237288135593201</v>
+      <c r="L103" s="31">
+        <v>0.60723514211886298</v>
       </c>
       <c r="M103" s="25">
-        <v>1475</v>
+        <v>6192</v>
       </c>
       <c r="N103" s="25">
-        <v>387</v>
+        <v>3760</v>
       </c>
       <c r="O103" s="5" t="b">
         <v>1</v>
       </c>
       <c r="P103" s="13" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="R103" s="5"/>
-      <c r="S103" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="T103" s="16">
-        <v>51</v>
+      <c r="S103" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="T103" s="15">
+        <v>45</v>
       </c>
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
@@ -7322,10 +7442,10 @@
     </row>
     <row r="114" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B114" s="34">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="C114" s="34" t="s">
         <v>9</v>
@@ -7334,8 +7454,12 @@
         <v>10</v>
       </c>
       <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
+      <c r="F114" s="34">
+        <v>5877</v>
+      </c>
+      <c r="G114" s="34">
+        <v>5623</v>
+      </c>
       <c r="H114" s="34"/>
       <c r="I114" s="34"/>
       <c r="J114" s="35"/>
@@ -7346,10 +7470,10 @@
       <c r="L114" s="32">
         <v>1.83920126116657E-2</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="25">
         <v>5709</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="25">
         <v>105</v>
       </c>
       <c r="O114" s="5" t="b">
@@ -8263,7 +8387,7 @@
   </sheetData>
   <autoFilter ref="A1:V114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V1008">
-    <sortCondition ref="A1:A1008"/>
+    <sortCondition ref="B1:B1008"/>
   </sortState>
   <conditionalFormatting sqref="A1:A10 A19:A1008">
     <cfRule type="colorScale" priority="5">
@@ -8349,10 +8473,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>23</v>
@@ -8365,10 +8489,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>23</v>
@@ -8379,10 +8503,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>23</v>
@@ -8393,10 +8517,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>23</v>
@@ -8407,10 +8531,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>23</v>
@@ -8421,10 +8545,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>23</v>
@@ -8435,10 +8559,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>23</v>
@@ -8449,10 +8573,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>23</v>
